--- a/data/hotels_by_city/Dallas/Dallas_shard_758.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_758.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1813 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r569188725-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>55461</t>
+  </si>
+  <si>
+    <t>107380</t>
+  </si>
+  <si>
+    <t>569188725</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel Close to DFW</t>
+  </si>
+  <si>
+    <t>From the moment I walked in I had a good feeling about this hotel. I was greeted immediately and welcomed in a most friendly manner. The rooms are very nice and comfortable and have a nice work area. I love when a problem is addressed quickly and correctly. I was working at the desk and the toilet kept making noise. I called down and was told somebody would get back to me. After a little wait I just decided to pop down to the desk to see what the status was. I was immediately moved to another room with apologies and sincerity. This one worked out fine and problem solved. A call out to Janet - who I found to be extremely professional and helpful. Definitely a great place to stay in this area. A lot of restaurants very close too.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>From the moment I walked in I had a good feeling about this hotel. I was greeted immediately and welcomed in a most friendly manner. The rooms are very nice and comfortable and have a nice work area. I love when a problem is addressed quickly and correctly. I was working at the desk and the toilet kept making noise. I called down and was told somebody would get back to me. After a little wait I just decided to pop down to the desk to see what the status was. I was immediately moved to another room with apologies and sincerity. This one worked out fine and problem solved. A call out to Janet - who I found to be extremely professional and helpful. Definitely a great place to stay in this area. A lot of restaurants very close too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r559685334-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>559685334</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>OKAY STAY</t>
+  </si>
+  <si>
+    <t>Okay hotel room, family was visiting the Dallas area and spent the night at this hotel, kind of old....Could do a better in the house cleaning department...Close to nearby restaurants and shopping areas.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r547706281-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>547706281</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Great Place and Very Friendly staff</t>
+  </si>
+  <si>
+    <t>I travel a lot to Texas and I have to say this was my "Best" stay ever while I was there. I was in for 3 weeks. Jordan was Awesome, professional and friendly, she gave very good recommendations for places to check out or eat at. The staff was very friendly and very professional. Next time I head down, I will be back to stay at this hotel!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r540792654-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>540792654</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry excuse for a Marriott  </t>
+  </si>
+  <si>
+    <t>The staff that I came in contact this weekend are where unprofessional. Every encounter made me wonder how Marriott has not striped this hotel of there brand . The room was dirty I found several hairs in the bed . During check in they told me that they could not upgrade me because I used points and this was against policy. Yet I have gold status and use points and get upgraded frequently. When my wife arrived they made her a key and canceled my key . I went to get a new key and they canceled her key .  At breakfast on Saturday They ran out of food with 20 minutes left . All trash cans where over flowing . I decided to make a waffle and after the first waffle got Burt Megan told me that you have to know how to use this waffle maker and take it out early because it burns everything . It seemed like Megan found it funny how terrible there breakfast service was when she said "welcome to the crazy hotel" . Sounds like the staff know how crappy of service they are providing . I have stayed at 20 plus Marriott hotels and have had nothing but 5 star reviews for all of them . This hotel was a disappointment to the Marriott Brand .  MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>The staff that I came in contact this weekend are where unprofessional. Every encounter made me wonder how Marriott has not striped this hotel of there brand . The room was dirty I found several hairs in the bed . During check in they told me that they could not upgrade me because I used points and this was against policy. Yet I have gold status and use points and get upgraded frequently. When my wife arrived they made her a key and canceled my key . I went to get a new key and they canceled her key .  At breakfast on Saturday They ran out of food with 20 minutes left . All trash cans where over flowing . I decided to make a waffle and after the first waffle got Burt Megan told me that you have to know how to use this waffle maker and take it out early because it burns everything . It seemed like Megan found it funny how terrible there breakfast service was when she said "welcome to the crazy hotel" . Sounds like the staff know how crappy of service they are providing . I have stayed at 20 plus Marriott hotels and have had nothing but 5 star reviews for all of them . This hotel was a disappointment to the Marriott Brand .  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r527685271-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>527685271</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>No empathy</t>
+  </si>
+  <si>
+    <t>My company made a reservation for me earlier this month. On 9/23, I was asked to cancel my reservation, which I did. Then I was asked to reschedule it - I called back within 5 minutes to reschedule. Jordan said she couldn't undo the cancellation because she didn't have the authorization codes and she'd have her boss call me on the morning of 9/24 - I then asked if it would be better to just make a new reservation and didn't care if the rate was different. She said yes. I said okay let's do that. She said okay then hung up. I assumed the reservation was made. I also did not receive a call on the morning of 9/24. I come today to check in and am informed that my reservation had been cancelled and they had no other rooms. Jordan was at the front and stated she was the one that spoke with me. I told her I was confused because I left the phone call thinking a reservation was being made. Her boss came out and very rudely told me exactly what Jordan had said - that there were no rooms available and they could send me some where else. I said that I understood that but needed help understanding what happened, re-explaining what occurred from my understanding. The only answer I kept getting was "this is what the computer says".  Then with her boss there Jordan...My company made a reservation for me earlier this month. On 9/23, I was asked to cancel my reservation, which I did. Then I was asked to reschedule it - I called back within 5 minutes to reschedule. Jordan said she couldn't undo the cancellation because she didn't have the authorization codes and she'd have her boss call me on the morning of 9/24 - I then asked if it would be better to just make a new reservation and didn't care if the rate was different. She said yes. I said okay let's do that. She said okay then hung up. I assumed the reservation was made. I also did not receive a call on the morning of 9/24. I come today to check in and am informed that my reservation had been cancelled and they had no other rooms. Jordan was at the front and stated she was the one that spoke with me. I told her I was confused because I left the phone call thinking a reservation was being made. Her boss came out and very rudely told me exactly what Jordan had said - that there were no rooms available and they could send me some where else. I said that I understood that but needed help understanding what happened, re-explaining what occurred from my understanding. The only answer I kept getting was "this is what the computer says".  Then with her boss there Jordan ended up saying she didn't remember telling me that she'd have her boss call or that we were setting up a new reservation and then she lied and said she'd told me that they were booked when I asked her about making the new reservation. If she'd told me that then, I would have made other arrangements then. Not waiting until the night of to try to find something. Overall, I got very frustrated and upset at the lack of empathy and willingness to accept responsibility. When I shared that, all I got was an "I'm sorry we have no more rooms". I get it - if you have no more rooms, you have no more rooms - an apology for miscommunication or misunderstanding is all I was asking for. Apparently that was too much for an entity that should be focused on the experiences of its customers. To top it off I checked on Expedia.com as I was leaving and it shows two rooms available. Shame on you for not only not giving a good customer experience or being empathetic to a customer but then not working to try to solve problems and instead making the customer feel as though they were in the wrong. Thanks but no thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>My company made a reservation for me earlier this month. On 9/23, I was asked to cancel my reservation, which I did. Then I was asked to reschedule it - I called back within 5 minutes to reschedule. Jordan said she couldn't undo the cancellation because she didn't have the authorization codes and she'd have her boss call me on the morning of 9/24 - I then asked if it would be better to just make a new reservation and didn't care if the rate was different. She said yes. I said okay let's do that. She said okay then hung up. I assumed the reservation was made. I also did not receive a call on the morning of 9/24. I come today to check in and am informed that my reservation had been cancelled and they had no other rooms. Jordan was at the front and stated she was the one that spoke with me. I told her I was confused because I left the phone call thinking a reservation was being made. Her boss came out and very rudely told me exactly what Jordan had said - that there were no rooms available and they could send me some where else. I said that I understood that but needed help understanding what happened, re-explaining what occurred from my understanding. The only answer I kept getting was "this is what the computer says".  Then with her boss there Jordan...My company made a reservation for me earlier this month. On 9/23, I was asked to cancel my reservation, which I did. Then I was asked to reschedule it - I called back within 5 minutes to reschedule. Jordan said she couldn't undo the cancellation because she didn't have the authorization codes and she'd have her boss call me on the morning of 9/24 - I then asked if it would be better to just make a new reservation and didn't care if the rate was different. She said yes. I said okay let's do that. She said okay then hung up. I assumed the reservation was made. I also did not receive a call on the morning of 9/24. I come today to check in and am informed that my reservation had been cancelled and they had no other rooms. Jordan was at the front and stated she was the one that spoke with me. I told her I was confused because I left the phone call thinking a reservation was being made. Her boss came out and very rudely told me exactly what Jordan had said - that there were no rooms available and they could send me some where else. I said that I understood that but needed help understanding what happened, re-explaining what occurred from my understanding. The only answer I kept getting was "this is what the computer says".  Then with her boss there Jordan ended up saying she didn't remember telling me that she'd have her boss call or that we were setting up a new reservation and then she lied and said she'd told me that they were booked when I asked her about making the new reservation. If she'd told me that then, I would have made other arrangements then. Not waiting until the night of to try to find something. Overall, I got very frustrated and upset at the lack of empathy and willingness to accept responsibility. When I shared that, all I got was an "I'm sorry we have no more rooms". I get it - if you have no more rooms, you have no more rooms - an apology for miscommunication or misunderstanding is all I was asking for. Apparently that was too much for an entity that should be focused on the experiences of its customers. To top it off I checked on Expedia.com as I was leaving and it shows two rooms available. Shame on you for not only not giving a good customer experience or being empathetic to a customer but then not working to try to solve problems and instead making the customer feel as though they were in the wrong. Thanks but no thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r526108868-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>526108868</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Decent and close to the hotel</t>
+  </si>
+  <si>
+    <t>It is an extended stay place, but the room I got was ultra small. It was clean and comfortable and the location is quiet. The building is older, so you will hear water running and other noises from next door suites.   A few restaurants within walking distance, and shopping too.  No pool, but a small hot spa pool. Gym was ok.  Not a bad price for the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r520609119-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>520609119</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Towneplace Suites experience </t>
+  </si>
+  <si>
+    <t>I usually stay at a Residence Inn or Courtyard. In comparison I found the rooms here to be pretty small and beds uncomfortable, however the amenities and room features were good. My biggest issue was the lack of soundproofing and noise from water pipes. Every time someone turned on a tap or had a shower the pipes made a very loud sound that woke me up a couple of times during the night.Location wise, it is close to the highway, and there are a couple of restaurants within walking distance.I found the staff friendly, however not very knowledgeable about the local area.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded September 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2017</t>
+  </si>
+  <si>
+    <t>I usually stay at a Residence Inn or Courtyard. In comparison I found the rooms here to be pretty small and beds uncomfortable, however the amenities and room features were good. My biggest issue was the lack of soundproofing and noise from water pipes. Every time someone turned on a tap or had a shower the pipes made a very loud sound that woke me up a couple of times during the night.Location wise, it is close to the highway, and there are a couple of restaurants within walking distance.I found the staff friendly, however not very knowledgeable about the local area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r496713713-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>496713713</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Bathroom and bedding had  cleanliness issues</t>
+  </si>
+  <si>
+    <t>I have stayed at this property several times over the years and it has always been of the best in the Marriott line. But this time, I was not left with a very good impression of the room. 
+Check in was quick even though they had be sold out the night before, I was able check in quickly and early so I was glad about that. The young woman who check me in was polite and professional and gave me the first room that was available.
+We were in our way in a couple of minutes.
+I have only stayed in the one bedroom suites at this property, but this time it was not available since it was a last minute booking. The standard studio suite is very small and does not offer a lot of space even though it was just my son and I. And once the sleeper is set up, there is almost no room to move around. The kitchen was fine with standard appliances and it is always good to have a fridge and microwave. The queen bed was comfortable but the sleeper mattress was horrible and needs to replaced ASAP. It was lumpy and you could feel the springs when you were in bed. My son could not sleep on it very long and ended up coming to bed with me so he could sleep. I suggest management try to sleep on it before having...I have stayed at this property several times over the years and it has always been of the best in the Marriott line. But this time, I was not left with a very good impression of the room. Check in was quick even though they had be sold out the night before, I was able check in quickly and early so I was glad about that. The young woman who check me in was polite and professional and gave me the first room that was available.We were in our way in a couple of minutes.I have only stayed in the one bedroom suites at this property, but this time it was not available since it was a last minute booking. The standard studio suite is very small and does not offer a lot of space even though it was just my son and I. And once the sleeper is set up, there is almost no room to move around. The kitchen was fine with standard appliances and it is always good to have a fridge and microwave. The queen bed was comfortable but the sleeper mattress was horrible and needs to replaced ASAP. It was lumpy and you could feel the springs when you were in bed. My son could not sleep on it very long and ended up coming to bed with me so he could sleep. I suggest management try to sleep on it before having a guest sleep on on it.Which brings me to the bedding....the bedding for the sleeper was dingy and looked dirty. It did not even smell clean which made me wonder when it had been laundered last. I expect that from lower tiered hotels. I don't expect it from a property that charges upwards of 100 bucks a night for the room. Also, the room did not seem to ever cool off even though it was set as low as it would go. In the area where the bed is located, there was no air felt at all. I think most of the problem is the odd design of the room. I have stayed at other TP Suites and those properties do not have the design that this room had.And now for my major complaint. Hair in the tub and on the floor and on the counter as well. I could not figure out why the shower was not draining properly until I pulled out the plug and found a wad of hair in the plug. And I am not exaggerating either. It was very clear to me that the drain and plug had not been cleaned in while. I have short, curly brown hair. The hair in the train was different colors and lengths. It was disgusting. There was also long hair on the floor near the toilet and on the counter near the sink. Two towels had stains on them and the bedding on the queen bed had two small gray stains on the comforter. That was obvious to me when I checked into the room so I am not sure how housekeeping missed it. I did not eat breakfast or use any other amenities. I was disappointed there was not a pool either. I like the quiet location and I like that I can get to Fort Worth in under 30 min but the cleanliness issues were a major turnoff and I don't know if I will return. The desk clerk did mention that the hotel had been full the night before and they were full the day we checked in so I don't know if that had anything to do with the cleanliness or if this was just an isolated incident. I did mention the bedding and the ac when I checked out but I forgot to mention the bathroom because I was in a hurry when we left. I hope someone from management sees this and addresses the issue ASAP.Room 126 on June 21st.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at this property several times over the years and it has always been of the best in the Marriott line. But this time, I was not left with a very good impression of the room. 
+Check in was quick even though they had be sold out the night before, I was able check in quickly and early so I was glad about that. The young woman who check me in was polite and professional and gave me the first room that was available.
+We were in our way in a couple of minutes.
+I have only stayed in the one bedroom suites at this property, but this time it was not available since it was a last minute booking. The standard studio suite is very small and does not offer a lot of space even though it was just my son and I. And once the sleeper is set up, there is almost no room to move around. The kitchen was fine with standard appliances and it is always good to have a fridge and microwave. The queen bed was comfortable but the sleeper mattress was horrible and needs to replaced ASAP. It was lumpy and you could feel the springs when you were in bed. My son could not sleep on it very long and ended up coming to bed with me so he could sleep. I suggest management try to sleep on it before having...I have stayed at this property several times over the years and it has always been of the best in the Marriott line. But this time, I was not left with a very good impression of the room. Check in was quick even though they had be sold out the night before, I was able check in quickly and early so I was glad about that. The young woman who check me in was polite and professional and gave me the first room that was available.We were in our way in a couple of minutes.I have only stayed in the one bedroom suites at this property, but this time it was not available since it was a last minute booking. The standard studio suite is very small and does not offer a lot of space even though it was just my son and I. And once the sleeper is set up, there is almost no room to move around. The kitchen was fine with standard appliances and it is always good to have a fridge and microwave. The queen bed was comfortable but the sleeper mattress was horrible and needs to replaced ASAP. It was lumpy and you could feel the springs when you were in bed. My son could not sleep on it very long and ended up coming to bed with me so he could sleep. I suggest management try to sleep on it before having a guest sleep on on it.Which brings me to the bedding....the bedding for the sleeper was dingy and looked dirty. It did not even smell clean which made me wonder when it had been laundered last. I expect that from lower tiered hotels. I don't expect it from a property that charges upwards of 100 bucks a night for the room. Also, the room did not seem to ever cool off even though it was set as low as it would go. In the area where the bed is located, there was no air felt at all. I think most of the problem is the odd design of the room. I have stayed at other TP Suites and those properties do not have the design that this room had.And now for my major complaint. Hair in the tub and on the floor and on the counter as well. I could not figure out why the shower was not draining properly until I pulled out the plug and found a wad of hair in the plug. And I am not exaggerating either. It was very clear to me that the drain and plug had not been cleaned in while. I have short, curly brown hair. The hair in the train was different colors and lengths. It was disgusting. There was also long hair on the floor near the toilet and on the counter near the sink. Two towels had stains on them and the bedding on the queen bed had two small gray stains on the comforter. That was obvious to me when I checked into the room so I am not sure how housekeeping missed it. I did not eat breakfast or use any other amenities. I was disappointed there was not a pool either. I like the quiet location and I like that I can get to Fort Worth in under 30 min but the cleanliness issues were a major turnoff and I don't know if I will return. The desk clerk did mention that the hotel had been full the night before and they were full the day we checked in so I don't know if that had anything to do with the cleanliness or if this was just an isolated incident. I did mention the bedding and the ac when I checked out but I forgot to mention the bathroom because I was in a hurry when we left. I hope someone from management sees this and addresses the issue ASAP.Room 126 on June 21st.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r493838622-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>493838622</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Great service, very accommodating. Breanna exceeded my expectations by helping print several documents for me. It saved me a lot if time and I am very thankful for her assistants. The room was comfortable and clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r474294566-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>474294566</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel. Really enjoyed the area and the staff was great. Great breakfast too! Pet friendly! Love the private bedroom. They have Wi-Fi. Loved having a kitchenette availabile to have snacks or a meal!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r471178761-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>471178761</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Great for long term stay- a people hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed in this hotel for 29 days and will be coming back again! The employees of the hotel made us feel like home and the facilities is great. Room cleaning was done everyday and bed sheet was changed weekly. Never once did they tried to do less. Special mention to Ling and Heather who had been great in giving me guidance on the neighbourhood.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r469912482-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>469912482</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Large Family Friendly</t>
+  </si>
+  <si>
+    <t>Stayed here with 5 young children on our way through Texas.   Staff was friendly and helpful.  The room/suite was very comfortable and affordable for our large family.  The only reason for 4 stars is that the Lobby area felt like it needed cleaned, first impression.  I would make it a 4.5 star if I could because otherwise, the room itself was clean and the hotel was quiet and breakfast was good.  We really enjoyed our short stay and will be back if ever in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r440105167-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>440105167</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay </t>
+  </si>
+  <si>
+    <t>We have stayed here on many occasions when visiting family. It is a quiet hotel that's off by itself. It is clean, offers breakfast, &amp; wifi. The beds are comfy &amp; it has a great shower. This is our go-to place when in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed here on many occasions when visiting family. It is a quiet hotel that's off by itself. It is clean, offers breakfast, &amp; wifi. The beds are comfy &amp; it has a great shower. This is our go-to place when in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r432630033-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>432630033</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>This is a very nice property.  Our room was clean and spacious.  It is in a great location as I had to run several unexpected errands and everything I needed was nearby, within 10 minutes.  My husband was pleased with the fitness room.  The staff was very friendly and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2016</t>
+  </si>
+  <si>
+    <t>This is a very nice property.  Our room was clean and spacious.  It is in a great location as I had to run several unexpected errands and everything I needed was nearby, within 10 minutes.  My husband was pleased with the fitness room.  The staff was very friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r432097593-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>432097593</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Very nice property</t>
+  </si>
+  <si>
+    <t>A very nice property, the place was very clean. The bed was okay. And it certainly is a nice quiet location. It was a little small. The gym is also kind of small. But the staff is very friendly. And the Suites are decent. Though the couch in mind could use a little replacing.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>A very nice property, the place was very clean. The bed was okay. And it certainly is a nice quiet location. It was a little small. The gym is also kind of small. But the staff is very friendly. And the Suites are decent. Though the couch in mind could use a little replacing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r418888568-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>418888568</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Traveling Honeymooners</t>
+  </si>
+  <si>
+    <t>We have stayed here before and it's home when we are on that side of town.  Stephanie, Heather, Cindy, and Breanna, are the best; clean rooms and great breakfast too.  Also, quite and great location yet out off all the hassles of DFW.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed here before and it's home when we are on that side of town.  Stephanie, Heather, Cindy, and Breanna, are the best; clean rooms and great breakfast too.  Also, quite and great location yet out off all the hassles of DFW.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r405488944-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>405488944</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Helpful Staff</t>
+  </si>
+  <si>
+    <t>The location, staff, food choices and level of cleanliness were Great.  Meagan was really helpful.  I arrived late and she spent time explaining to me what options I had as far as dinner.  I'll stay at this location again.Thanks.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r394630689-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>394630689</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights. When I checked in the hall way carpet was filthy. Crumbs and food all along it. My room was the farthest from the elevator. The next day, same thing. Never vacuumed. The third day, same thing. I saw them cleaning rooms, but they must have just walked over the hall way dirt. Day after day.   I didn't have my room cleaned, so I can't speak to that. It appeared clean when I checked in. Over all its a poorly constructed, cheap materials hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights. When I checked in the hall way carpet was filthy. Crumbs and food all along it. My room was the farthest from the elevator. The next day, same thing. Never vacuumed. The third day, same thing. I saw them cleaning rooms, but they must have just walked over the hall way dirt. Day after day.   I didn't have my room cleaned, so I can't speak to that. It appeared clean when I checked in. Over all its a poorly constructed, cheap materials hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r377683220-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>377683220</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>Bedford TownePlace Suites Pet Friendly Needs Cleaning</t>
+  </si>
+  <si>
+    <t>We checked in to Bedford TownePlace Suites on Thursday 26 May 2016 checked out Sunday Morning 27 May. Staff was friendly check in easy. (accommodated early check in)!!    Free Breakfast was good and good variety.   Marriott chain is usually a great place to stay. This time was our 1st time staying with our 2 dogs in a pet friendly room.  50$ one time charge for both dogs better rate than most hotels. Room was fine, little kitchenette, 2 burner electric stove, medium sized fridge with ice maker. Dishwasher and ok set of pots, pans and dish set, silverware and glasses. Living room has a pullout bed, with little ottoman table with LG 32" flat screen TV. 1 bedroom locking door has queen bed, clean linens and comfortable bed with a LG 32" TV. Ceiling fan was nice during the night.  Bathroom basic layout great shower head with good pressure.  The few things that I was very dissatisfied and very disappointed was the smell of pets once you walked in and carpets were stained.  Went and made a trip to Petsmart to get odor/stain remover went through 2 bottles and 1 bottle of febreze. I was appreciate Marriott having rooms available for our 4 legged family members just wish they would make sure rooms are cleaned and rugs treated to eliminate odor. Not sure I will be back or would I recommend others with pets without ensuring the carpets and cleaning...We checked in to Bedford TownePlace Suites on Thursday 26 May 2016 checked out Sunday Morning 27 May. Staff was friendly check in easy. (accommodated early check in)!!    Free Breakfast was good and good variety.   Marriott chain is usually a great place to stay. This time was our 1st time staying with our 2 dogs in a pet friendly room.  50$ one time charge for both dogs better rate than most hotels. Room was fine, little kitchenette, 2 burner electric stove, medium sized fridge with ice maker. Dishwasher and ok set of pots, pans and dish set, silverware and glasses. Living room has a pullout bed, with little ottoman table with LG 32" flat screen TV. 1 bedroom locking door has queen bed, clean linens and comfortable bed with a LG 32" TV. Ceiling fan was nice during the night.  Bathroom basic layout great shower head with good pressure.  The few things that I was very dissatisfied and very disappointed was the smell of pets once you walked in and carpets were stained.  Went and made a trip to Petsmart to get odor/stain remover went through 2 bottles and 1 bottle of febreze. I was appreciate Marriott having rooms available for our 4 legged family members just wish they would make sure rooms are cleaned and rugs treated to eliminate odor. Not sure I will be back or would I recommend others with pets without ensuring the carpets and cleaning of pet friendly rooms are attended too and a change is made.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>We checked in to Bedford TownePlace Suites on Thursday 26 May 2016 checked out Sunday Morning 27 May. Staff was friendly check in easy. (accommodated early check in)!!    Free Breakfast was good and good variety.   Marriott chain is usually a great place to stay. This time was our 1st time staying with our 2 dogs in a pet friendly room.  50$ one time charge for both dogs better rate than most hotels. Room was fine, little kitchenette, 2 burner electric stove, medium sized fridge with ice maker. Dishwasher and ok set of pots, pans and dish set, silverware and glasses. Living room has a pullout bed, with little ottoman table with LG 32" flat screen TV. 1 bedroom locking door has queen bed, clean linens and comfortable bed with a LG 32" TV. Ceiling fan was nice during the night.  Bathroom basic layout great shower head with good pressure.  The few things that I was very dissatisfied and very disappointed was the smell of pets once you walked in and carpets were stained.  Went and made a trip to Petsmart to get odor/stain remover went through 2 bottles and 1 bottle of febreze. I was appreciate Marriott having rooms available for our 4 legged family members just wish they would make sure rooms are cleaned and rugs treated to eliminate odor. Not sure I will be back or would I recommend others with pets without ensuring the carpets and cleaning...We checked in to Bedford TownePlace Suites on Thursday 26 May 2016 checked out Sunday Morning 27 May. Staff was friendly check in easy. (accommodated early check in)!!    Free Breakfast was good and good variety.   Marriott chain is usually a great place to stay. This time was our 1st time staying with our 2 dogs in a pet friendly room.  50$ one time charge for both dogs better rate than most hotels. Room was fine, little kitchenette, 2 burner electric stove, medium sized fridge with ice maker. Dishwasher and ok set of pots, pans and dish set, silverware and glasses. Living room has a pullout bed, with little ottoman table with LG 32" flat screen TV. 1 bedroom locking door has queen bed, clean linens and comfortable bed with a LG 32" TV. Ceiling fan was nice during the night.  Bathroom basic layout great shower head with good pressure.  The few things that I was very dissatisfied and very disappointed was the smell of pets once you walked in and carpets were stained.  Went and made a trip to Petsmart to get odor/stain remover went through 2 bottles and 1 bottle of febreze. I was appreciate Marriott having rooms available for our 4 legged family members just wish they would make sure rooms are cleaned and rugs treated to eliminate odor. Not sure I will be back or would I recommend others with pets without ensuring the carpets and cleaning of pet friendly rooms are attended too and a change is made.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r373222999-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>373222999</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>A Great Stay</t>
+  </si>
+  <si>
+    <t>We have enjoyed this reasonably priced hotel, that has accommodated us over our transition to Texas.  The staff is friendly and gracious.  We'd like to thank all of them for making our stay here so special.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>We have enjoyed this reasonably priced hotel, that has accommodated us over our transition to Texas.  The staff is friendly and gracious.  We'd like to thank all of them for making our stay here so special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r359735333-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>359735333</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Nice Stay, Fair Price</t>
+  </si>
+  <si>
+    <t>This was my first stay at this TownePlace Suites location.  Located close to DFW airport but not too close for noise.  Good food close by too.  The staff were all friendly and the room was clean and comfortable MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>This was my first stay at this TownePlace Suites location.  Located close to DFW airport but not too close for noise.  Good food close by too.  The staff were all friendly and the room was clean and comfortable More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r356410409-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>356410409</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Above and Beyond</t>
+  </si>
+  <si>
+    <t>It happens. A corporate hotel online booking system that permits you to book a room even when the hotel in question is actually sold out. Arriving at the front desk of Towne Suites in Bedford to be informed of the “system glitch” would have by very irritating but for the fact that Meagan, the evening manager, was the one who warmly greeted me and assured me she would handle the problem. This was particularly impressive given that I arrived at a very busy time for the front desk. Meagan was on her own at the counter yet she handled each customer with such professional courtesy and competence we all patiently waited our turn.  She even managed to greet every guest that came through the lobby on the way to their room. For my particular case, she had a larger task of helping me find local accommodations when most surrounding hotels were also sold out. I was able to sit back while she took care of everything. It wasn’t only what Meagan did but how she did it that left such a positive impression with this frequent traveler. Customer service skills that embody care and competence are scarce these days. I can’t tell you how much she impressed me. If Meagan is the kind of employee that Marriot hires, they will be getting more of my business in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded March 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2016</t>
+  </si>
+  <si>
+    <t>It happens. A corporate hotel online booking system that permits you to book a room even when the hotel in question is actually sold out. Arriving at the front desk of Towne Suites in Bedford to be informed of the “system glitch” would have by very irritating but for the fact that Meagan, the evening manager, was the one who warmly greeted me and assured me she would handle the problem. This was particularly impressive given that I arrived at a very busy time for the front desk. Meagan was on her own at the counter yet she handled each customer with such professional courtesy and competence we all patiently waited our turn.  She even managed to greet every guest that came through the lobby on the way to their room. For my particular case, she had a larger task of helping me find local accommodations when most surrounding hotels were also sold out. I was able to sit back while she took care of everything. It wasn’t only what Meagan did but how she did it that left such a positive impression with this frequent traveler. Customer service skills that embody care and competence are scarce these days. I can’t tell you how much she impressed me. If Meagan is the kind of employee that Marriot hires, they will be getting more of my business in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r356073748-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>356073748</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Towneplace Suites Dallas/Bedford was a good choice for our Family Vacation/Wedding visit.The 1 bedroom suite was very clean and had all of the amenities needed for a comfortable stay.Hotels central location to Dallas and Fort Worth made for a short trip to both Dallas and Fort Worth tourist attractions.Plenty of great restaurants nearby.(Pappadeauxs was Excellent!)The complimentary breakfast was varied enough for everyones taste.Staff was very friendly and helpful.       Overall a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Towneplace Suites Dallas/Bedford was a good choice for our Family Vacation/Wedding visit.The 1 bedroom suite was very clean and had all of the amenities needed for a comfortable stay.Hotels central location to Dallas and Fort Worth made for a short trip to both Dallas and Fort Worth tourist attractions.Plenty of great restaurants nearby.(Pappadeauxs was Excellent!)The complimentary breakfast was varied enough for everyones taste.Staff was very friendly and helpful.       Overall a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r354788965-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>354788965</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>Great hotel for business or vacation</t>
+  </si>
+  <si>
+    <t>TownePlace Suites is very nicely located.  Its close enough to Dallas that it is convenient to get to, however far enough that you don't have all the hustle and bustle from the city.     Check in was quick and easy.  The clerk at the desk was very friendly and inviting.  The hotel does offer a complimentary breakfast.  It has a decent range of items to choose from (assorted fruit, muffins, eggs, waffles, biscuits and gravy, yogurt, cereal).  There isn't a whole lot of seating so you want to get down there early or bring your food back to your room.  The exercise room consists of two treadmills, so nothing spectacular there.  There is a hot tub located outside also.     The room itself was clean when we arrived and pretty spacious.  Our room has a stove, dishwasher, microwave, refriderator and TV.  Perfect for a long stay.     Overall this is a great hotel to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>TownePlace Suites is very nicely located.  Its close enough to Dallas that it is convenient to get to, however far enough that you don't have all the hustle and bustle from the city.     Check in was quick and easy.  The clerk at the desk was very friendly and inviting.  The hotel does offer a complimentary breakfast.  It has a decent range of items to choose from (assorted fruit, muffins, eggs, waffles, biscuits and gravy, yogurt, cereal).  There isn't a whole lot of seating so you want to get down there early or bring your food back to your room.  The exercise room consists of two treadmills, so nothing spectacular there.  There is a hot tub located outside also.     The room itself was clean when we arrived and pretty spacious.  Our room has a stove, dishwasher, microwave, refriderator and TV.  Perfect for a long stay.     Overall this is a great hotel to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r349007381-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>349007381</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>I love the atmosphere and service at TownePlace Suites!!!</t>
+  </si>
+  <si>
+    <t>Jacob Million greeted us upon arrival. He is very kind and treated our company very well. So far the hospitality has exceeded my expectations. I am extremely satisfied with my experience here. Not only has everyone been extremely kind, but I feel right at home here. I love TownPlace Suites, I wouldn't trade this trip for the world! Thank you Jacob for serving us while being so professional. -ClayMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Jacob Million greeted us upon arrival. He is very kind and treated our company very well. So far the hospitality has exceeded my expectations. I am extremely satisfied with my experience here. Not only has everyone been extremely kind, but I feel right at home here. I love TownPlace Suites, I wouldn't trade this trip for the world! Thank you Jacob for serving us while being so professional. -ClayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r345490845-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>345490845</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Best greeting ever.</t>
+  </si>
+  <si>
+    <t>After being on the road driving for a little over six hours, I could not wait to make it to the hotel to check in and just relax. When I finally arrived and came in to check in I received the greatest greeting ever from the manager  Jacob Million. I must say he greeted me with a smile and was nothing but courteous, even after the million questions I had he had no problem assisting me with all of them. I have stayed at many hotels in the metroplex area and by far this has been the best so far. My stay is not over yet but I had to take the opportunity to come and brag on the manager and the cleanliness of this hotel. If the rest of my stay is anything close to how it has started, it will be by far the greatest hotel stay  I have ever had. I have quite a few friends that travel to this area on a regular basis and I will definitely recommend that this is the only place they come and stay while they are here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>After being on the road driving for a little over six hours, I could not wait to make it to the hotel to check in and just relax. When I finally arrived and came in to check in I received the greatest greeting ever from the manager  Jacob Million. I must say he greeted me with a smile and was nothing but courteous, even after the million questions I had he had no problem assisting me with all of them. I have stayed at many hotels in the metroplex area and by far this has been the best so far. My stay is not over yet but I had to take the opportunity to come and brag on the manager and the cleanliness of this hotel. If the rest of my stay is anything close to how it has started, it will be by far the greatest hotel stay  I have ever had. I have quite a few friends that travel to this area on a regular basis and I will definitely recommend that this is the only place they come and stay while they are here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r343894083-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>343894083</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Really nice place to stay</t>
+  </si>
+  <si>
+    <t>I stayed for nearly one month in January 2016 and I'm very pleased to recommend this hotel to anyone who passes by. Clean and spacious rooms, with kitchen and basic items to cook. Really kind and professional staff. Generous and delicious buffet breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2016</t>
+  </si>
+  <si>
+    <t>I stayed for nearly one month in January 2016 and I'm very pleased to recommend this hotel to anyone who passes by. Clean and spacious rooms, with kitchen and basic items to cook. Really kind and professional staff. Generous and delicious buffet breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r342472658-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>342472658</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Really nice property!</t>
+  </si>
+  <si>
+    <t>A fairly new building, or a very well kept one. Friendly service, plenty of parking, nice spacious suite rooms. With full working kitchens and separate tv and sitting areas. Plenty of outlets, clean, and pretty quiet. MoreShow less</t>
+  </si>
+  <si>
+    <t>A fairly new building, or a very well kept one. Friendly service, plenty of parking, nice spacious suite rooms. With full working kitchens and separate tv and sitting areas. Plenty of outlets, clean, and pretty quiet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r336779540-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>336779540</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>Spent two weeks here. It was clean and comfy! The staff was very pleasant and accommodating. I was so happy that they allow pets. I was able to bring my dog along. He does not do well in boarding. Definitely would stay there again, and recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Spent two weeks here. It was clean and comfy! The staff was very pleasant and accommodating. I was so happy that they allow pets. I was able to bring my dog along. He does not do well in boarding. Definitely would stay there again, and recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r335762596-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>335762596</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Loved Everything</t>
+  </si>
+  <si>
+    <t>Cookies on check-in were delicious. Breakfast was varied with lots of options. Everything that I tried was wonderful.I really enjoyed the room, kitchenette with fridge, bed was absolutely heavenly.The only down side is when I tried to book for a return visit, the price had increased at least 20%MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Cookies on check-in were delicious. Breakfast was varied with lots of options. Everything that I tried was wonderful.I really enjoyed the room, kitchenette with fridge, bed was absolutely heavenly.The only down side is when I tried to book for a return visit, the price had increased at least 20%More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r326291472-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>326291472</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Excellent place to stay.</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for the Philadelphia vs Dallas NFL game on 11/8/15.  Our stay was perfect.  It was like a mini apartment and the staff was always pleasant and helpful.  .  It is close to shopping, dinning, and activities.  We couldn't have asked for anything more.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded November 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for the Philadelphia vs Dallas NFL game on 11/8/15.  Our stay was perfect.  It was like a mini apartment and the staff was always pleasant and helpful.  .  It is close to shopping, dinning, and activities.  We couldn't have asked for anything more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r324097163-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>324097163</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Tight Squeeze</t>
+  </si>
+  <si>
+    <t>This place is somewhat an enigma in that it has some significant issues, both good and bad.  Let me begin with the problems I found.  My rooms (I was moved when the heater burned out in my first room) had beds crammed into a barely adequate space.  This leads to the second problem of having the beveled closet door block passage to and from the bed when opened.  The bathroom door almost hits the toilet when entering the small bathroom.  Finally, the AC/Heater is the old style where you must turn an inexact knob to adjust the temperature.  This place seems dated!
+Regarding the good, the staff here is composed of the friendliest, eager to help people you will every experience.  The bed was comfortable, the TV worked well with many channel choices, the kitchenette appropriately stocked and although this place seems poorly designed and constructed, there was no issue with noise in the halls or neighbors.  Of course free parking and internet is a plus as is the breakfast.  Speaking of which, the breakfast is a study in offering the most items in the smallest space.  I was surprised at the amount of standard goods (three cereals, oatmeal, yogurt, fresh fruit, scrambled eggs and a mystery meat floating in hot water) offered in the small, well designed area.  
+My conclusion is I would stay here again only if the price is right.  You will get a decent stay but...This place is somewhat an enigma in that it has some significant issues, both good and bad.  Let me begin with the problems I found.  My rooms (I was moved when the heater burned out in my first room) had beds crammed into a barely adequate space.  This leads to the second problem of having the beveled closet door block passage to and from the bed when opened.  The bathroom door almost hits the toilet when entering the small bathroom.  Finally, the AC/Heater is the old style where you must turn an inexact knob to adjust the temperature.  This place seems dated!Regarding the good, the staff here is composed of the friendliest, eager to help people you will every experience.  The bed was comfortable, the TV worked well with many channel choices, the kitchenette appropriately stocked and although this place seems poorly designed and constructed, there was no issue with noise in the halls or neighbors.  Of course free parking and internet is a plus as is the breakfast.  Speaking of which, the breakfast is a study in offering the most items in the smallest space.  I was surprised at the amount of standard goods (three cereals, oatmeal, yogurt, fresh fruit, scrambled eggs and a mystery meat floating in hot water) offered in the small, well designed area.  My conclusion is I would stay here again only if the price is right.  You will get a decent stay but I would shop around as this place is little better than most of the competition.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>This place is somewhat an enigma in that it has some significant issues, both good and bad.  Let me begin with the problems I found.  My rooms (I was moved when the heater burned out in my first room) had beds crammed into a barely adequate space.  This leads to the second problem of having the beveled closet door block passage to and from the bed when opened.  The bathroom door almost hits the toilet when entering the small bathroom.  Finally, the AC/Heater is the old style where you must turn an inexact knob to adjust the temperature.  This place seems dated!
+Regarding the good, the staff here is composed of the friendliest, eager to help people you will every experience.  The bed was comfortable, the TV worked well with many channel choices, the kitchenette appropriately stocked and although this place seems poorly designed and constructed, there was no issue with noise in the halls or neighbors.  Of course free parking and internet is a plus as is the breakfast.  Speaking of which, the breakfast is a study in offering the most items in the smallest space.  I was surprised at the amount of standard goods (three cereals, oatmeal, yogurt, fresh fruit, scrambled eggs and a mystery meat floating in hot water) offered in the small, well designed area.  
+My conclusion is I would stay here again only if the price is right.  You will get a decent stay but...This place is somewhat an enigma in that it has some significant issues, both good and bad.  Let me begin with the problems I found.  My rooms (I was moved when the heater burned out in my first room) had beds crammed into a barely adequate space.  This leads to the second problem of having the beveled closet door block passage to and from the bed when opened.  The bathroom door almost hits the toilet when entering the small bathroom.  Finally, the AC/Heater is the old style where you must turn an inexact knob to adjust the temperature.  This place seems dated!Regarding the good, the staff here is composed of the friendliest, eager to help people you will every experience.  The bed was comfortable, the TV worked well with many channel choices, the kitchenette appropriately stocked and although this place seems poorly designed and constructed, there was no issue with noise in the halls or neighbors.  Of course free parking and internet is a plus as is the breakfast.  Speaking of which, the breakfast is a study in offering the most items in the smallest space.  I was surprised at the amount of standard goods (three cereals, oatmeal, yogurt, fresh fruit, scrambled eggs and a mystery meat floating in hot water) offered in the small, well designed area.  My conclusion is I would stay here again only if the price is right.  You will get a decent stay but I would shop around as this place is little better than most of the competition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r323007608-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>323007608</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>We stay here occasionally for business. Standard room is a bit small but nice. The staff really make the place worth staying here. Had an issue with the business center and Yesenia went out of her way to help me out. She was able to print and email several documents that were time critical for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay here occasionally for business. Standard room is a bit small but nice. The staff really make the place worth staying here. Had an issue with the business center and Yesenia went out of her way to help me out. She was able to print and email several documents that were time critical for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r319638568-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>319638568</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Difficult to find and a bit tired.</t>
+  </si>
+  <si>
+    <t>Even with goggle map app the property can be difficult to find at night. Signage is blocked by trees. The monument sign on Central only has the TownPlace and Courtyard names where you see them as you drive by and are not lit at night.  It appears to be a bit tired with some repairs needed. Room was not cleaned on late return,(8PM) but enough towels for just me, Staff is very friendly, breakfast area is small and does get crowded. Good location for this trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Even with goggle map app the property can be difficult to find at night. Signage is blocked by trees. The monument sign on Central only has the TownPlace and Courtyard names where you see them as you drive by and are not lit at night.  It appears to be a bit tired with some repairs needed. Room was not cleaned on late return,(8PM) but enough towels for just me, Staff is very friendly, breakfast area is small and does get crowded. Good location for this trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r317842532-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>317842532</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>A quiet area, and nice, friendly staff.</t>
+  </si>
+  <si>
+    <t>If you need a quiet place, this fits the bill.  The rooms are clean, although the elevator smells like water issues...moldy smell.  There are laundry facilities, and breakfast is served including hot items, such as meat and eggs.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>If you need a quiet place, this fits the bill.  The rooms are clean, although the elevator smells like water issues...moldy smell.  There are laundry facilities, and breakfast is served including hot items, such as meat and eggs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r313155672-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>313155672</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Once Again - GREAT SERVICE / GREAT HOTEL</t>
+  </si>
+  <si>
+    <t>We recently stayed again September 16-19 while house hunting in the HEB area. We have had the pleasure of being guests at this great hidden gem numerous times over the last 5-6 years.  The staff goes out of their way to make sure everything is perfect and comfortable for their guests whether you are a 1st timer or repeat. Check in / out is always quick and easy.  We had our (4) 4-legged family members with us.  Numerous other guests had their pets with them as well but you could never tell.  The hallways are very quiet and very clean.  The housekeeping staff go out of their way to make sure you have everything you need.The complimentary breakfast is hot &amp; fresh and has a wide variety of tasty items to choose from.   I would most definitely recommend this hotel to anyone staying in the HEB area.  They go ABOVE &amp; BEYOND to make their guests feel welcomed and special.KEEP UP THE GREAT WORK!!!!!Thanks so much for a very pleasant stay (once again).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We recently stayed again September 16-19 while house hunting in the HEB area. We have had the pleasure of being guests at this great hidden gem numerous times over the last 5-6 years.  The staff goes out of their way to make sure everything is perfect and comfortable for their guests whether you are a 1st timer or repeat. Check in / out is always quick and easy.  We had our (4) 4-legged family members with us.  Numerous other guests had their pets with them as well but you could never tell.  The hallways are very quiet and very clean.  The housekeeping staff go out of their way to make sure you have everything you need.The complimentary breakfast is hot &amp; fresh and has a wide variety of tasty items to choose from.   I would most definitely recommend this hotel to anyone staying in the HEB area.  They go ABOVE &amp; BEYOND to make their guests feel welcomed and special.KEEP UP THE GREAT WORK!!!!!Thanks so much for a very pleasant stay (once again).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r299612570-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>299612570</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Good people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a great place. The manager checked me in and helped out when my bill got messed up. Room was clean, housekeepers were good and friendly. The only bad is the breakfast. They only cooked fried eggs a meat and waffles. Said home office stopped all other foods. What a shame. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r295002836-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>295002836</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>5 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was fantastic! When I walked in to check in they already knew my name and handed me my key. Room was Excellent! Bed was comfortable, the couch had a hide-a-bed and room was equipt with cooking utensils and dinnerware. The Breakfast they offered was ok, but there was something for everyone. I will be going back again and again! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r289336399-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>289336399</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Best Customer Service I've Ever Received!</t>
+  </si>
+  <si>
+    <t>We stayed here with our kids, for 2 nights, while my husband had contract work to do in Dallas. (We were on a family road trip). I had to work late (on my computer), so I went downstairs to the breakfast area to work. Around midnight, the woman at the front desk noticed how much I had been talking (I was making videos for work), and she brought me a bottle of water, without saying a word.The next day, while we were out and about, the housekeeping staff saw that my 9 year old daughter had written a note to the Tooth Fairy. (She had lost a tooth back in Austin, and was apologizing for not being home). When I arrived back at the hotel for the evening, we saw that the manager (Mike) and the Housekeeper, had left her a $5 bill with a note from the Tooth Fairy. I just about cried.Anyone who has traveled with children knows hows stressful it can be.It's just great to run into great customer service like this, it's a rarity. I also mentioned to my husband how pleased I was with the amount of storage available, to put all of our belongings! What a well laid out space!I'll definitely look for a TownPlace Suites again, on our travels.MoreShow less</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded July 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here with our kids, for 2 nights, while my husband had contract work to do in Dallas. (We were on a family road trip). I had to work late (on my computer), so I went downstairs to the breakfast area to work. Around midnight, the woman at the front desk noticed how much I had been talking (I was making videos for work), and she brought me a bottle of water, without saying a word.The next day, while we were out and about, the housekeeping staff saw that my 9 year old daughter had written a note to the Tooth Fairy. (She had lost a tooth back in Austin, and was apologizing for not being home). When I arrived back at the hotel for the evening, we saw that the manager (Mike) and the Housekeeper, had left her a $5 bill with a note from the Tooth Fairy. I just about cried.Anyone who has traveled with children knows hows stressful it can be.It's just great to run into great customer service like this, it's a rarity. I also mentioned to my husband how pleased I was with the amount of storage available, to put all of our belongings! What a well laid out space!I'll definitely look for a TownPlace Suites again, on our travels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r283611515-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>283611515</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Residence Inn  - Lite - worth a visit</t>
+  </si>
+  <si>
+    <t>if you like the Residence Inn and cant find one close this is definitely worth the visit. This was the first time that I have stayed at a Towne Place and was very surprised. Clean - slightly less than a residence suite but more than sufficient. Service was good, this place was well maintained &amp; clean. Workout rom was ok - breakfast faire was moderate but good. Will now add to my list of potential sites when travelingMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>if you like the Residence Inn and cant find one close this is definitely worth the visit. This was the first time that I have stayed at a Towne Place and was very surprised. Clean - slightly less than a residence suite but more than sufficient. Service was good, this place was well maintained &amp; clean. Workout rom was ok - breakfast faire was moderate but good. Will now add to my list of potential sites when travelingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r279571352-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>279571352</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Best staff in DFW</t>
+  </si>
+  <si>
+    <t>We are waiting on our home to be finished and stayed here 9 nights with 2 toddlers, ages 1 &amp; 3. Everything was very clean and the kitchen was perfect.... I was shocked to find a dishwasher! The breakfast was wonderful too! But the staff was beyond accommodating. They were wonderful with our kids and gave them toys to play with!! They did everything they could to make our stay relaxing during a stressful time.MoreShow less</t>
+  </si>
+  <si>
+    <t>We are waiting on our home to be finished and stayed here 9 nights with 2 toddlers, ages 1 &amp; 3. Everything was very clean and the kitchen was perfect.... I was shocked to find a dishwasher! The breakfast was wonderful too! But the staff was beyond accommodating. They were wonderful with our kids and gave them toys to play with!! They did everything they could to make our stay relaxing during a stressful time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r275557307-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>275557307</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Comfortable room, great staff</t>
+  </si>
+  <si>
+    <t>We stayed for two nights and loved our room. It was small but we liked how clean it was. Friendly staff. The only thing "negative" that I can say is that they only had a hot tub, but no pool. We did take advantage of the hot tub, and it was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We stayed for two nights and loved our room. It was small but we liked how clean it was. Friendly staff. The only thing "negative" that I can say is that they only had a hot tub, but no pool. We did take advantage of the hot tub, and it was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r263451380-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>263451380</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Avg hotel but great people</t>
+  </si>
+  <si>
+    <t>The hotel itself was avg at best. The rooms weren't designed that well and nothing really stood out about the place. The employees however were very friendly and went out of their way to try and compensate me for an issue they had with the TVs in the fitness center. I would consider staying here again simply because of the gentlemen that helped out while there.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded April 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2015</t>
+  </si>
+  <si>
+    <t>The hotel itself was avg at best. The rooms weren't designed that well and nothing really stood out about the place. The employees however were very friendly and went out of their way to try and compensate me for an issue they had with the TVs in the fitness center. I would consider staying here again simply because of the gentlemen that helped out while there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r263400667-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>263400667</t>
+  </si>
+  <si>
+    <t>Extended stay while home is being repaired</t>
+  </si>
+  <si>
+    <t>I stayed at TownePlace for 3 weeks while my home was being repaired.  If you have to be away from home under my circumstances I could have not picked a better place to stay.  The management to the staff have been wonderful.  Everyone has gone out of their way to make my stay enjoyable.  I feel that I have made new friends.  Thank you TownePlace for smiles and conversation every morning. Everytime I pass by I will think about you.Thank you for good breakfast every morning Cindy.MoreShow less</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at TownePlace for 3 weeks while my home was being repaired.  If you have to be away from home under my circumstances I could have not picked a better place to stay.  The management to the staff have been wonderful.  Everyone has gone out of their way to make my stay enjoyable.  I feel that I have made new friends.  Thank you TownePlace for smiles and conversation every morning. Everytime I pass by I will think about you.Thank you for good breakfast every morning Cindy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r261550250-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>261550250</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Friendly Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at Townplace Suites in Bedford, TX for several days. Great location, close to the airport, restaurants and shopping. Very comfortable bed, I actually slept better while I was there than I have in months. Room was exceptionally clean, spacious and quite. Enjoyed breakfast every morning, plenty of variety. Very polite staff that go out of their way to make your stay enjoyable. It was refreshing to stay at a hotel where management, breakfast host, room attendants and front desk interacted with the guest and are always asking, 'Is there anything we can do for you?' I would recommend this hotel and truly look forward to staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at Townplace Suites in Bedford, TX for several days. Great location, close to the airport, restaurants and shopping. Very comfortable bed, I actually slept better while I was there than I have in months. Room was exceptionally clean, spacious and quite. Enjoyed breakfast every morning, plenty of variety. Very polite staff that go out of their way to make your stay enjoyable. It was refreshing to stay at a hotel where management, breakfast host, room attendants and front desk interacted with the guest and are always asking, 'Is there anything we can do for you?' I would recommend this hotel and truly look forward to staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r251366795-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>251366795</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Convenient to the airport.</t>
+  </si>
+  <si>
+    <t>Nice place to lay up while waiting for the next day's flight. Reasonably priced with clean rooms. The hotel shows a little age but is maintained well.  No frills breakfast that's easy to pass up unless your budget tells you otherwise. A definite value compared to hotels closer the DFW.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Nice place to lay up while waiting for the next day's flight. Reasonably priced with clean rooms. The hotel shows a little age but is maintained well.  No frills breakfast that's easy to pass up unless your budget tells you otherwise. A definite value compared to hotels closer the DFW.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r250431118-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>250431118</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>As comfortable as home</t>
+  </si>
+  <si>
+    <t>I was so presently surprised with this hotel. I was on my way to Atlanta (from Vancouver, BC) and stopped off here in Dallas for a few days. This hotel allows pets, which I think is great! However, what was even better than that, is that you cannot tell that this hotel allows pets - it was incredibly clean and smelled like a brand new hotel. They also offer "welcome gifts" for both dogs and cats. I wish I had of brought my dog on this trip with me....she would have loved this place. The bed and pillows are also worth mentioning....very, very comfortable. I would definitely stay here again and will recommend this hotel to everyone I know that visits the Dallas, TX, area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was so presently surprised with this hotel. I was on my way to Atlanta (from Vancouver, BC) and stopped off here in Dallas for a few days. This hotel allows pets, which I think is great! However, what was even better than that, is that you cannot tell that this hotel allows pets - it was incredibly clean and smelled like a brand new hotel. They also offer "welcome gifts" for both dogs and cats. I wish I had of brought my dog on this trip with me....she would have loved this place. The bed and pillows are also worth mentioning....very, very comfortable. I would definitely stay here again and will recommend this hotel to everyone I know that visits the Dallas, TX, area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r250244464-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>250244464</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>If you want privacy don't stay here</t>
+  </si>
+  <si>
+    <t>Housekeeping entered our room even with the do not disturb sign clearly visible on our door, assistant manager told her to go in and lay a "welcome gift" in our room, even though we had already been there 3 days. I was very displeased with the response I received from the assistant manager "well, she did knock and no one answered, so she went in" Do Not Disturb means just that!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Housekeeping entered our room even with the do not disturb sign clearly visible on our door, assistant manager told her to go in and lay a "welcome gift" in our room, even though we had already been there 3 days. I was very displeased with the response I received from the assistant manager "well, she did knock and no one answered, so she went in" Do Not Disturb means just that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r241894270-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>241894270</t>
+  </si>
+  <si>
+    <t>11/28/2014</t>
+  </si>
+  <si>
+    <t>Stayed with the family</t>
+  </si>
+  <si>
+    <t>We needed a travel layover location. This hotel was near enough to my route and PET FRIENDLY. We have a very small, well behaved Terrier and our stay couldn't have been better, for the price. This place was a STEAL. Incredible value. We had a 1 bedroom suite with a small living room w/ pullout. Full kitchen with stocked cookware. Breakfast was standard hotel fare. The staff were all very courteous. The weight room was very nice, even surprisingly so. I did not use other amenities.Overall, would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded December 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2014</t>
+  </si>
+  <si>
+    <t>We needed a travel layover location. This hotel was near enough to my route and PET FRIENDLY. We have a very small, well behaved Terrier and our stay couldn't have been better, for the price. This place was a STEAL. Incredible value. We had a 1 bedroom suite with a small living room w/ pullout. Full kitchen with stocked cookware. Breakfast was standard hotel fare. The staff were all very courteous. The weight room was very nice, even surprisingly so. I did not use other amenities.Overall, would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r236641555-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>236641555</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Could NOT have been better!!</t>
+  </si>
+  <si>
+    <t>We recently stayed Oct. 23-26 again after staying numerous times in 2010 &amp; 2011. The quality of the property and staff friendliness had not changed one bit.  The hotel is pet friendly and that is very important to a lot of us who travel with our 4-legged family members.     The suites are extremely clean and comfortable. Hot breakfast each morning was always fresh and plentiful.  The front desk team was so nice, always in a good mood and super accommodating.   We will be back the next time we make our way to the DFW area.GREAT JOB....KEEP IT UP!!MEBGalveston, TexasMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We recently stayed Oct. 23-26 again after staying numerous times in 2010 &amp; 2011. The quality of the property and staff friendliness had not changed one bit.  The hotel is pet friendly and that is very important to a lot of us who travel with our 4-legged family members.     The suites are extremely clean and comfortable. Hot breakfast each morning was always fresh and plentiful.  The front desk team was so nice, always in a good mood and super accommodating.   We will be back the next time we make our way to the DFW area.GREAT JOB....KEEP IT UP!!MEBGalveston, TexasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r230943215-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>230943215</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>nice get away</t>
+  </si>
+  <si>
+    <t>stayed here while in bedford for a event for my oldest daughter...  it was clean, quite and nicely designed. .. it was a studio suite and the bathroom was a bit small but not a problem...had a average/normal breakfast and the area was a nice size...after i got the breakfast items i wanted, took upstairs, key card wouldn't work, downstairs/ upstairs, ditto, downstairs/upstairs and the third time was a charm(my only problem)...the staff was the nicest group i've encounteredMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>stayed here while in bedford for a event for my oldest daughter...  it was clean, quite and nicely designed. .. it was a studio suite and the bathroom was a bit small but not a problem...had a average/normal breakfast and the area was a nice size...after i got the breakfast items i wanted, took upstairs, key card wouldn't work, downstairs/ upstairs, ditto, downstairs/upstairs and the third time was a charm(my only problem)...the staff was the nicest group i've encounteredMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r216473598-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>216473598</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Average - Room could use a little upkeep</t>
+  </si>
+  <si>
+    <t>Overall, it was average.  The lobby area / breakfast area were great.  Love the refrigerated egg and bacon biscuits.  Much better than the powered eggs at other hotels.  The rooms were OK.  The fridge and kitchen cabinets seemed like they could use a thorough cleaning.  The living/desk area were fine, but the carpet was starting to wear.  The bed was very comfortable and the linens were crisp and fresh.  The closet, however, was near the foot of the bed with not a lot of space to open the door.  The bathroom was very small, although plenty of counter space for getting ready.  The door cleared the toilet by probably an inch.  The towels were thin and my bath towel had a dark smudge on it.   The bathroom appeared clean.All in all, I just wasn't 'comfortable' on the room as I am with most hotel rooms.  I doubt I would stay again if back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Overall, it was average.  The lobby area / breakfast area were great.  Love the refrigerated egg and bacon biscuits.  Much better than the powered eggs at other hotels.  The rooms were OK.  The fridge and kitchen cabinets seemed like they could use a thorough cleaning.  The living/desk area were fine, but the carpet was starting to wear.  The bed was very comfortable and the linens were crisp and fresh.  The closet, however, was near the foot of the bed with not a lot of space to open the door.  The bathroom was very small, although plenty of counter space for getting ready.  The door cleared the toilet by probably an inch.  The towels were thin and my bath towel had a dark smudge on it.   The bathroom appeared clean.All in all, I just wasn't 'comfortable' on the room as I am with most hotel rooms.  I doubt I would stay again if back in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r215409835-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>215409835</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Great place and great room</t>
+  </si>
+  <si>
+    <t>I booked this room on Priceline for a family vacation. I had my two young children and 2 fur babies. The man at the front desk could have been friendlier and also told me about the pet fee, but the rest of the staff made up for this. The room was large for a queen suite, which was great for my kids to move around. There were quite a few other guests with pets, but you wouldn't know it. The rooms were great at keeping in the sound. There was a continental breakfast that had a rotating special and all the extras you expect. There was always someone taking care of it and making sure you were doing ok. It was always very clean. Upon checkout, the lady was very cordial. These women probably don't get enough credit...they definitely deserve a pat on the back for their service. I would definitely stay here again. My only qualm was the construction made it a bit tricky...but welcome to DFW with that!MoreShow less</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>I booked this room on Priceline for a family vacation. I had my two young children and 2 fur babies. The man at the front desk could have been friendlier and also told me about the pet fee, but the rest of the staff made up for this. The room was large for a queen suite, which was great for my kids to move around. There were quite a few other guests with pets, but you wouldn't know it. The rooms were great at keeping in the sound. There was a continental breakfast that had a rotating special and all the extras you expect. There was always someone taking care of it and making sure you were doing ok. It was always very clean. Upon checkout, the lady was very cordial. These women probably don't get enough credit...they definitely deserve a pat on the back for their service. I would definitely stay here again. My only qualm was the construction made it a bit tricky...but welcome to DFW with that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r213825725-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>213825725</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>Very helpful under bad conditions</t>
+  </si>
+  <si>
+    <t>We were flying home from a European trip when a storm hit Dallas and they canceled all connecting flights.  The airport was bedlam, and we were lucky to find any rooms.  Mike the general manager was very helpful getting directions to the hotel for our taxi driver, and made a reservation for our taxi the next morning back to the airport.  Unfortunately they didn't have any shuttle service.  But the room was clean, roomy and the breakfast was more than ample.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We were flying home from a European trip when a storm hit Dallas and they canceled all connecting flights.  The airport was bedlam, and we were lucky to find any rooms.  Mike the general manager was very helpful getting directions to the hotel for our taxi driver, and made a reservation for our taxi the next morning back to the airport.  Unfortunately they didn't have any shuttle service.  But the room was clean, roomy and the breakfast was more than ample.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r207874157-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>207874157</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay</t>
+  </si>
+  <si>
+    <t>The staff of this hotel was so professional, especially Jason, who went above and beyond to make our family feel comfortable during our stay.  We had all gathered there for a Memorial Service of a close family member.  We were able to have a family barbeque and while we took over the breakfast area and patio, Jason made sure that every request was fillled.  It was a pleasure to stay at such a friendly and professional hotel, along with the staff, is certaibly an asset to the Marriott Family.  Thank you for making our stay so pleasurable.MoreShow less</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>The staff of this hotel was so professional, especially Jason, who went above and beyond to make our family feel comfortable during our stay.  We had all gathered there for a Memorial Service of a close family member.  We were able to have a family barbeque and while we took over the breakfast area and patio, Jason made sure that every request was fillled.  It was a pleasure to stay at such a friendly and professional hotel, along with the staff, is certaibly an asset to the Marriott Family.  Thank you for making our stay so pleasurable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r206018457-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>206018457</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>If there was a rating more than 5 this place would get it</t>
+  </si>
+  <si>
+    <t>Family stayed here to gather for a memorial service for a close relative. The hospitality could not have been better.  We had cookout and a reception for those attending and staff especially Jason was so attentive to our requests and went beyond to make sure our gathering was perfect.  All staff was friendly as well.  Thank you for making our stay comfortableMoreShow less</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Family stayed here to gather for a memorial service for a close relative. The hospitality could not have been better.  We had cookout and a reception for those attending and staff especially Jason was so attentive to our requests and went beyond to make sure our gathering was perfect.  All staff was friendly as well.  Thank you for making our stay comfortableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r201790800-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>201790800</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>Comfortable place for short or extended stay</t>
+  </si>
+  <si>
+    <t>Came to Fort Worth for a conference at the convention center - conference hotel full - this was a great alternative option.  Rooms are large and comfortable with complete kitchen amenities.  Big draw - free wi-fi, free breakfast and free parking.  Long hike to convention center but a ten minute drive. Getting into the hotel lot is a little tricky with one way streets but staff provide god directions for other options.   There is a shuttle to downtown in the evenings and the hotel provides many quasi- social events on week nights some with wine or beer.There is a nice outdoor pool with lounge chairs and privacy fence surround.  Hot breakfast every morning is extensive and well maintained.  All staff were very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Came to Fort Worth for a conference at the convention center - conference hotel full - this was a great alternative option.  Rooms are large and comfortable with complete kitchen amenities.  Big draw - free wi-fi, free breakfast and free parking.  Long hike to convention center but a ten minute drive. Getting into the hotel lot is a little tricky with one way streets but staff provide god directions for other options.   There is a shuttle to downtown in the evenings and the hotel provides many quasi- social events on week nights some with wine or beer.There is a nice outdoor pool with lounge chairs and privacy fence surround.  Hot breakfast every morning is extensive and well maintained.  All staff were very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r188701054-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>188701054</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Great 1 night stay</t>
+  </si>
+  <si>
+    <t>Stayed here for only 1 night.  Location was ideal for me.  I arrived late and the attendant was very nice and professional in greeting me.  A northern had just blown through and it was raining fairly heavy.  It was late and I asked him for some recommendations for dinner.  Thursday night so not much stays open late out here in the burbs.  Regardless, a Chili's right across the street would suffice.  Had a couple of beers at the bar over there and bit of steak to wash them down.  
+Headed back to the hotel and enjoyed a very nice sleep in a comfortable, clean room.  The room was spacious enough and offered a small kitchenette that I did not use.  A coffee pot was provided in the room but that was not needed either as they had warm black coffee ready early that next morning.  Sleep was excellent as the bedding and mattress were in great shape and smelled clean as well.  
+Had a small quick start breakfast in their lobby area (provided complimentary with paid room) and it was sufficient to start the day (danish, oatmeal, cold cereal, egg patty things, sausagey looking disks).  I didn't partake of much opting only for oatmeal and coffee but there were loads of folks eating everything in sight.  Heck, it's the burbs, remember.  
+Anyway, the hotel is clean, comfortable and was conveniently located for me.  I would not hesitate to stay here...Stayed here for only 1 night.  Location was ideal for me.  I arrived late and the attendant was very nice and professional in greeting me.  A northern had just blown through and it was raining fairly heavy.  It was late and I asked him for some recommendations for dinner.  Thursday night so not much stays open late out here in the burbs.  Regardless, a Chili's right across the street would suffice.  Had a couple of beers at the bar over there and bit of steak to wash them down.  Headed back to the hotel and enjoyed a very nice sleep in a comfortable, clean room.  The room was spacious enough and offered a small kitchenette that I did not use.  A coffee pot was provided in the room but that was not needed either as they had warm black coffee ready early that next morning.  Sleep was excellent as the bedding and mattress were in great shape and smelled clean as well.  Had a small quick start breakfast in their lobby area (provided complimentary with paid room) and it was sufficient to start the day (danish, oatmeal, cold cereal, egg patty things, sausagey looking disks).  I didn't partake of much opting only for oatmeal and coffee but there were loads of folks eating everything in sight.  Heck, it's the burbs, remember.  Anyway, the hotel is clean, comfortable and was conveniently located for me.  I would not hesitate to stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded January 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for only 1 night.  Location was ideal for me.  I arrived late and the attendant was very nice and professional in greeting me.  A northern had just blown through and it was raining fairly heavy.  It was late and I asked him for some recommendations for dinner.  Thursday night so not much stays open late out here in the burbs.  Regardless, a Chili's right across the street would suffice.  Had a couple of beers at the bar over there and bit of steak to wash them down.  
+Headed back to the hotel and enjoyed a very nice sleep in a comfortable, clean room.  The room was spacious enough and offered a small kitchenette that I did not use.  A coffee pot was provided in the room but that was not needed either as they had warm black coffee ready early that next morning.  Sleep was excellent as the bedding and mattress were in great shape and smelled clean as well.  
+Had a small quick start breakfast in their lobby area (provided complimentary with paid room) and it was sufficient to start the day (danish, oatmeal, cold cereal, egg patty things, sausagey looking disks).  I didn't partake of much opting only for oatmeal and coffee but there were loads of folks eating everything in sight.  Heck, it's the burbs, remember.  
+Anyway, the hotel is clean, comfortable and was conveniently located for me.  I would not hesitate to stay here...Stayed here for only 1 night.  Location was ideal for me.  I arrived late and the attendant was very nice and professional in greeting me.  A northern had just blown through and it was raining fairly heavy.  It was late and I asked him for some recommendations for dinner.  Thursday night so not much stays open late out here in the burbs.  Regardless, a Chili's right across the street would suffice.  Had a couple of beers at the bar over there and bit of steak to wash them down.  Headed back to the hotel and enjoyed a very nice sleep in a comfortable, clean room.  The room was spacious enough and offered a small kitchenette that I did not use.  A coffee pot was provided in the room but that was not needed either as they had warm black coffee ready early that next morning.  Sleep was excellent as the bedding and mattress were in great shape and smelled clean as well.  Had a small quick start breakfast in their lobby area (provided complimentary with paid room) and it was sufficient to start the day (danish, oatmeal, cold cereal, egg patty things, sausagey looking disks).  I didn't partake of much opting only for oatmeal and coffee but there were loads of folks eating everything in sight.  Heck, it's the burbs, remember.  Anyway, the hotel is clean, comfortable and was conveniently located for me.  I would not hesitate to stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r186791214-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>186791214</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Great hotel; awesome staff</t>
+  </si>
+  <si>
+    <t>We stayed here for five days (for our son's wedding) along with all the relatives and wedding party.  Very clean hotel; great breakfast options; super friendly and helpful staff.  Plenty of room in each suite to spread out and relax.  Good neighborhood with restaurants nearby.  Very impressed with this hotel and would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for five days (for our son's wedding) along with all the relatives and wedding party.  Very clean hotel; great breakfast options; super friendly and helpful staff.  Plenty of room in each suite to spread out and relax.  Good neighborhood with restaurants nearby.  Very impressed with this hotel and would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r186789154-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>186789154</t>
+  </si>
+  <si>
+    <t>Very pleasant stay...</t>
+  </si>
+  <si>
+    <t>Friendly staff, very clean room, quiet environment, hot tasty breakfast, good housekeeping, absolutely nothing to complain about. We stayed 4 nights and had a great experience. Check-in was quick and efficient. We were greeted when we passed the front desk and asked if everything was okay. Would definitely stay again. We stayed in a room that had two queen beds, a sleeper sofa, dining table with chairs, a cooktop, full size refrigerator, dishwasher and sink. There were plenty of electrical outlets to plug in phone chargers and computers.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Friendly staff, very clean room, quiet environment, hot tasty breakfast, good housekeeping, absolutely nothing to complain about. We stayed 4 nights and had a great experience. Check-in was quick and efficient. We were greeted when we passed the front desk and asked if everything was okay. Would definitely stay again. We stayed in a room that had two queen beds, a sleeper sofa, dining table with chairs, a cooktop, full size refrigerator, dishwasher and sink. There were plenty of electrical outlets to plug in phone chargers and computers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r185080676-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>185080676</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Falmily vacation</t>
+  </si>
+  <si>
+    <t>Great property! If you are looking for fancy, this is not it, however...I felt more at home and cared for here than I have at many "fine stay" establishments. The front desk staff was amazingly helpful and friendly and welcomed any questions and went out of their way to answere them. Breakfast was good, could maybe use another waffle maker for size of property and to keep batter coming...But...all in all, great stay. LOVE the apartment like furnishings. Made our family feel right at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded January 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2014</t>
+  </si>
+  <si>
+    <t>Great property! If you are looking for fancy, this is not it, however...I felt more at home and cared for here than I have at many "fine stay" establishments. The front desk staff was amazingly helpful and friendly and welcomed any questions and went out of their way to answere them. Breakfast was good, could maybe use another waffle maker for size of property and to keep batter coming...But...all in all, great stay. LOVE the apartment like furnishings. Made our family feel right at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r184636885-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>184636885</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised!</t>
+  </si>
+  <si>
+    <t>Generally, we prefer bed and breakfasts when traveling, however, the TownePlace was wonderful! First off, it was spotlessly clean.  Everything was in order, and the front desk could not have been friendlier, always a greeting and an offer to assist in any way.  The rooms were cozy with very nice colorful decor and comfortable beds.  The bathroom was spacious with drawers for belongings. Ample lighting, towels and even Paul Mitchell products.The complimentary breakfast was generous with plenty of food choices and bananas!  Rarely do I find bananas at hotels (I love them)!  There was a hot choice, waffles in the shape of the state of Texas which was made us laugh!  Juices, pastry, muffins, breads, hard boiled eggs, yogurt, oatmeal and cereal too.One of my favorite touches was the iced lemon water available all day!  What a nice idea!The hotel was convenient to many attractions and easy to access.Would definitely stay here again!  It was not a huge hotel and that was a bonus as well, just the right size.MoreShow less</t>
+  </si>
+  <si>
+    <t>Generally, we prefer bed and breakfasts when traveling, however, the TownePlace was wonderful! First off, it was spotlessly clean.  Everything was in order, and the front desk could not have been friendlier, always a greeting and an offer to assist in any way.  The rooms were cozy with very nice colorful decor and comfortable beds.  The bathroom was spacious with drawers for belongings. Ample lighting, towels and even Paul Mitchell products.The complimentary breakfast was generous with plenty of food choices and bananas!  Rarely do I find bananas at hotels (I love them)!  There was a hot choice, waffles in the shape of the state of Texas which was made us laugh!  Juices, pastry, muffins, breads, hard boiled eggs, yogurt, oatmeal and cereal too.One of my favorite touches was the iced lemon water available all day!  What a nice idea!The hotel was convenient to many attractions and easy to access.Would definitely stay here again!  It was not a huge hotel and that was a bonus as well, just the right size.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r166215324-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>166215324</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Hidden treasure</t>
+  </si>
+  <si>
+    <t>Great place, good value, great staff. Off the highway just enough so that you don't hear the noise. Many Restaurants all within mile.Will definately be backFYI be sure to call ahead for directions there is a lot of construction at the moment and can be confusing. MoreShow less</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Great place, good value, great staff. Off the highway just enough so that you don't hear the noise. Many Restaurants all within mile.Will definately be backFYI be sure to call ahead for directions there is a lot of construction at the moment and can be confusing. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r162546150-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>162546150</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>The good, bad and bizarre</t>
+  </si>
+  <si>
+    <t>Our family was sent here by our insurance company after our house flooded to give us housing while repairs were being made to our home. I don't have a lot of experience staying in extended stay hotels but ill give you the run down of the good the bad and the bizarre of townie place suites. 
+Lets start with the good. The rooms are large and attractively decorated. There are lots of places to unpack and comfortable put away your belongings. The rooms are equipped with a fridge, microwave, stove, dishes and cooking utensils. This hotel is convenient lay located to dfw airport, a movie theater and a few restaurants. Free breakfast and wifi, which is saying a lot if you've ever stayed at a Marriott before you know wifi is 12 bucks per day and breakfast will cost you another 25.
+The bad. He hotel is very difficult to find. It's locate directly behind another Marriott property and impossible to see from the street. The beds are horrible. They are equipped with full size beds with uncomfortable mattresses and pull out sleeper sofas that are even worse. The coffee is disgusting The bizarre. When you walk in the front door you are greeted by the dining room and a snack stand. There is a small booth that is e check in counter. When I got here I thought I came in through the wrong door, I was expecting to...Our family was sent here by our insurance company after our house flooded to give us housing while repairs were being made to our home. I don't have a lot of experience staying in extended stay hotels but ill give you the run down of the good the bad and the bizarre of townie place suites. Lets start with the good. The rooms are large and attractively decorated. There are lots of places to unpack and comfortable put away your belongings. The rooms are equipped with a fridge, microwave, stove, dishes and cooking utensils. This hotel is convenient lay located to dfw airport, a movie theater and a few restaurants. Free breakfast and wifi, which is saying a lot if you've ever stayed at a Marriott before you know wifi is 12 bucks per day and breakfast will cost you another 25.The bad. He hotel is very difficult to find. It's locate directly behind another Marriott property and impossible to see from the street. The beds are horrible. They are equipped with full size beds with uncomfortable mattresses and pull out sleeper sofas that are even worse. The coffee is disgusting The bizarre. When you walk in the front door you are greeted by the dining room and a snack stand. There is a small booth that is e check in counter. When I got here I thought I came in through the wrong door, I was expecting to see a front desk, which this hotel does not have. They have a pool size hot tub.... Which would be great, except this is Texas and its 90+ degrees outside six months of the year. There is no pool.Overall, I would say this place is just ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded June 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2013</t>
+  </si>
+  <si>
+    <t>Our family was sent here by our insurance company after our house flooded to give us housing while repairs were being made to our home. I don't have a lot of experience staying in extended stay hotels but ill give you the run down of the good the bad and the bizarre of townie place suites. 
+Lets start with the good. The rooms are large and attractively decorated. There are lots of places to unpack and comfortable put away your belongings. The rooms are equipped with a fridge, microwave, stove, dishes and cooking utensils. This hotel is convenient lay located to dfw airport, a movie theater and a few restaurants. Free breakfast and wifi, which is saying a lot if you've ever stayed at a Marriott before you know wifi is 12 bucks per day and breakfast will cost you another 25.
+The bad. He hotel is very difficult to find. It's locate directly behind another Marriott property and impossible to see from the street. The beds are horrible. They are equipped with full size beds with uncomfortable mattresses and pull out sleeper sofas that are even worse. The coffee is disgusting The bizarre. When you walk in the front door you are greeted by the dining room and a snack stand. There is a small booth that is e check in counter. When I got here I thought I came in through the wrong door, I was expecting to...Our family was sent here by our insurance company after our house flooded to give us housing while repairs were being made to our home. I don't have a lot of experience staying in extended stay hotels but ill give you the run down of the good the bad and the bizarre of townie place suites. Lets start with the good. The rooms are large and attractively decorated. There are lots of places to unpack and comfortable put away your belongings. The rooms are equipped with a fridge, microwave, stove, dishes and cooking utensils. This hotel is convenient lay located to dfw airport, a movie theater and a few restaurants. Free breakfast and wifi, which is saying a lot if you've ever stayed at a Marriott before you know wifi is 12 bucks per day and breakfast will cost you another 25.The bad. He hotel is very difficult to find. It's locate directly behind another Marriott property and impossible to see from the street. The beds are horrible. They are equipped with full size beds with uncomfortable mattresses and pull out sleeper sofas that are even worse. The coffee is disgusting The bizarre. When you walk in the front door you are greeted by the dining room and a snack stand. There is a small booth that is e check in counter. When I got here I thought I came in through the wrong door, I was expecting to see a front desk, which this hotel does not have. They have a pool size hot tub.... Which would be great, except this is Texas and its 90+ degrees outside six months of the year. There is no pool.Overall, I would say this place is just ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r160680078-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>160680078</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Seemed New, and Very clean</t>
+  </si>
+  <si>
+    <t>We stayed at the Towne Place Suites because the Hyatt Stockyard had overbooked and cancelled our reservation.   It was late, and we wanted to relax and get to our room.   It is a little tricky to find.   You need to get on the East side, and it was a one way street.   The front desk people were very nice and offered any help with directions, maps, stuff to do.  Very nice.   We went to our room and I was pleasantly surprised.  It smelled clean, and looked new and fresh.  How nice was it having a little kitchen right in the room as you walk in.  They made great use of that space that would have just been wasted on a foyer.  It had a full fridge, cook top, dishwasher, sink, coffee pot, microwave, cabinets with dishes and everything you would need.  It would be a perfect place to stay for a week.  The bed was VERY comfortable and so were the pillows, nice bathroom with a great shower, and blow dryer.  The room also has a large chair to relax in and a desk area with a chair.  The hotel has a nice free breakfast in the lobby every morning which was awesome.  So nice not to get up and drive out in the morning for something to eat.   The only downside was I could hear noises from the guests in other rooms.  Nice place.  I believe there was a...We stayed at the Towne Place Suites because the Hyatt Stockyard had overbooked and cancelled our reservation.   It was late, and we wanted to relax and get to our room.   It is a little tricky to find.   You need to get on the East side, and it was a one way street.   The front desk people were very nice and offered any help with directions, maps, stuff to do.  Very nice.   We went to our room and I was pleasantly surprised.  It smelled clean, and looked new and fresh.  How nice was it having a little kitchen right in the room as you walk in.  They made great use of that space that would have just been wasted on a foyer.  It had a full fridge, cook top, dishwasher, sink, coffee pot, microwave, cabinets with dishes and everything you would need.  It would be a perfect place to stay for a week.  The bed was VERY comfortable and so were the pillows, nice bathroom with a great shower, and blow dryer.  The room also has a large chair to relax in and a desk area with a chair.  The hotel has a nice free breakfast in the lobby every morning which was awesome.  So nice not to get up and drive out in the morning for something to eat.   The only downside was I could hear noises from the guests in other rooms.  Nice place.  I believe there was a pool and gym which we didn't use and I can't comment on.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Towne Place Suites because the Hyatt Stockyard had overbooked and cancelled our reservation.   It was late, and we wanted to relax and get to our room.   It is a little tricky to find.   You need to get on the East side, and it was a one way street.   The front desk people were very nice and offered any help with directions, maps, stuff to do.  Very nice.   We went to our room and I was pleasantly surprised.  It smelled clean, and looked new and fresh.  How nice was it having a little kitchen right in the room as you walk in.  They made great use of that space that would have just been wasted on a foyer.  It had a full fridge, cook top, dishwasher, sink, coffee pot, microwave, cabinets with dishes and everything you would need.  It would be a perfect place to stay for a week.  The bed was VERY comfortable and so were the pillows, nice bathroom with a great shower, and blow dryer.  The room also has a large chair to relax in and a desk area with a chair.  The hotel has a nice free breakfast in the lobby every morning which was awesome.  So nice not to get up and drive out in the morning for something to eat.   The only downside was I could hear noises from the guests in other rooms.  Nice place.  I believe there was a...We stayed at the Towne Place Suites because the Hyatt Stockyard had overbooked and cancelled our reservation.   It was late, and we wanted to relax and get to our room.   It is a little tricky to find.   You need to get on the East side, and it was a one way street.   The front desk people were very nice and offered any help with directions, maps, stuff to do.  Very nice.   We went to our room and I was pleasantly surprised.  It smelled clean, and looked new and fresh.  How nice was it having a little kitchen right in the room as you walk in.  They made great use of that space that would have just been wasted on a foyer.  It had a full fridge, cook top, dishwasher, sink, coffee pot, microwave, cabinets with dishes and everything you would need.  It would be a perfect place to stay for a week.  The bed was VERY comfortable and so were the pillows, nice bathroom with a great shower, and blow dryer.  The room also has a large chair to relax in and a desk area with a chair.  The hotel has a nice free breakfast in the lobby every morning which was awesome.  So nice not to get up and drive out in the morning for something to eat.   The only downside was I could hear noises from the guests in other rooms.  Nice place.  I believe there was a pool and gym which we didn't use and I can't comment on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r158685649-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>158685649</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Average Stay for the price</t>
+  </si>
+  <si>
+    <t>The rooms were clean and the staff accommodating, but the rooms seem to be getting a bit dated(chair in my room was missing an arm and beat up) but not that bad for the economical price. The hot breakfast was a waffle maker with a long line and microwave burritos and sandwiches which I was ok with (easy to heat and eat on the go). All in all I'd say exactly what I would expect for the money MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>The rooms were clean and the staff accommodating, but the rooms seem to be getting a bit dated(chair in my room was missing an arm and beat up) but not that bad for the economical price. The hot breakfast was a waffle maker with a long line and microwave burritos and sandwiches which I was ok with (easy to heat and eat on the go). All in all I'd say exactly what I would expect for the money More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r151205974-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>151205974</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>Average is about right</t>
+  </si>
+  <si>
+    <t>1. Breakfast is ok for 2-3 days, but the same pre-packaged stuff every day is boring and not appealing. 2. Customer service is seriously lacking, it seems that everyone is more concerned about sitting in the front desk chair or quickly finishing a task than attending to guests. 3. The construction is horrid in this area, all the way up and down is just a huge aggravation. 4. Fitness center is well equipped, but heats up quick and the treadmill is a complete joke, all it does is make a loud squeaking noise. 5. The rooms are very clean, well kept and the added benefit of a nice kitchen is what makes me give them at least 3 "stars"  I won't be staying here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>BedfordTownePlace, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded February 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2013</t>
+  </si>
+  <si>
+    <t>1. Breakfast is ok for 2-3 days, but the same pre-packaged stuff every day is boring and not appealing. 2. Customer service is seriously lacking, it seems that everyone is more concerned about sitting in the front desk chair or quickly finishing a task than attending to guests. 3. The construction is horrid in this area, all the way up and down is just a huge aggravation. 4. Fitness center is well equipped, but heats up quick and the treadmill is a complete joke, all it does is make a loud squeaking noise. 5. The rooms are very clean, well kept and the added benefit of a nice kitchen is what makes me give them at least 3 "stars"  I won't be staying here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r151094002-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>151094002</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>Lower than a "no tell-motel"</t>
+  </si>
+  <si>
+    <t>The check-in person did not stand up to greet me - it was a young lady who just stayed seated. There is 1980's orange type carpeting in the entry. The room smelled musty.  It was a cold night and I turned on the heater in the room.  The fire alarm was set off with the heater turned on. I had to wait for a time before trying the heater again - and the fire alarm did not go off. The continental breakfast - skip it.  No one was manning the front desk at check out and I had to wait until the person hosting the "breakfast" could break away to check me out (She by the way was friendly, apologetic, appropriate!) This hotel stay was worth about $40 - not Marriott quality AT ALL! We are Marriott supporters and I support NOT going to this TownPlace.MoreShow less</t>
+  </si>
+  <si>
+    <t>The check-in person did not stand up to greet me - it was a young lady who just stayed seated. There is 1980's orange type carpeting in the entry. The room smelled musty.  It was a cold night and I turned on the heater in the room.  The fire alarm was set off with the heater turned on. I had to wait for a time before trying the heater again - and the fire alarm did not go off. The continental breakfast - skip it.  No one was manning the front desk at check out and I had to wait until the person hosting the "breakfast" could break away to check me out (She by the way was friendly, apologetic, appropriate!) This hotel stay was worth about $40 - not Marriott quality AT ALL! We are Marriott supporters and I support NOT going to this TownPlace.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r148210759-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>148210759</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Nicely renovated hotel. Very clean and the towels were sooo soft! The room really surprised me with how modern and up-to-date it was. Located near the highway but, it is tucked away in a nice quiet wooded area. As a Marriott employee this is by far the nicest TownePlace I have stayed at!</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r139114222-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>139114222</t>
+  </si>
+  <si>
+    <t>09/01/2012</t>
+  </si>
+  <si>
+    <t>Just average for a long stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks during a work.  The "grab and go" breakfast is not much at all.  I've stayed at Staybridge Suites and they have an awesome fresh, hot breakfast.  The place is a bit dated but my room was clean.  There is only one air conditioner for the suite.  It was VERY cold in the living area and if turned to a warmer setting, the bedroom got very stuffy and warm.  They do have a pull-out sofa but not sure how sleeping next to the ice cold air conditioner would feel.  There are a few other kitchenette hotels in this area.  I would recommend one of those compared to this one.  Staff is friendly and the hotel is close to the freeway, restaurants and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>BedfordHI_GM, Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded September 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks during a work.  The "grab and go" breakfast is not much at all.  I've stayed at Staybridge Suites and they have an awesome fresh, hot breakfast.  The place is a bit dated but my room was clean.  There is only one air conditioner for the suite.  It was VERY cold in the living area and if turned to a warmer setting, the bedroom got very stuffy and warm.  They do have a pull-out sofa but not sure how sleeping next to the ice cold air conditioner would feel.  There are a few other kitchenette hotels in this area.  I would recommend one of those compared to this one.  Staff is friendly and the hotel is close to the freeway, restaurants and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r138769301-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>138769301</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>comfortable &amp; good value</t>
+  </si>
+  <si>
+    <t>We enjoyed two nights here and it is nice to have more than one room which is typical of most hotels. ONe room with a living area adjacent to the full kitchen was good size, clean and comfortable.  The bedroom was just that with a good bed.  The decor was a little dated and as we learned this property was one of the first TownePlace Suites in the Marriott portfolio.  Overall it was fine. Breakfast showed a good variety.  This hotel is really good for extended stays as was most of the people staying here were families during a transition.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r136251584-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>136251584</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>Good Value and Accommodation</t>
+  </si>
+  <si>
+    <t>Stayed here overnight due to no availability at preferred hotel near Grapevine. Nice, average size room; living area with fold out bed, kitchen, separate bedroom. Clean, comfortable, colorful decor, and cold a/c. Only complaint is that the toilet had stain streaks and the grab and go breakfast was more like a snack. In a neighborhood setting close to stores and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>BedfordHI_GM, General Manager at TownePlace Suites Dallas Bedford, responded to this reviewResponded August 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here overnight due to no availability at preferred hotel near Grapevine. Nice, average size room; living area with fold out bed, kitchen, separate bedroom. Clean, comfortable, colorful decor, and cold a/c. Only complaint is that the toilet had stain streaks and the grab and go breakfast was more like a snack. In a neighborhood setting close to stores and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r124276479-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>124276479</t>
+  </si>
+  <si>
+    <t>02/07/2012</t>
+  </si>
+  <si>
+    <t>Ho hum</t>
+  </si>
+  <si>
+    <t>We needed a place to stay overnight in the Bedford, TX area and the TownePlace Suites was in the area we needed to be and they would allow pets.  Over the years, we have stayed in all the Marriott brands to include other TownePlace Suites.  In comparison with all the other places, this rates in the bottom two.  There was no facial tissues in the bathroom.  The bathroom door could not open all the way as it hit the shower curtain rod.  The bathroom door edge butted up to the toliet and had to be closed in order to use the toliet.  Refrigerator ice maker did not function.  The window curtains were badly wrinkled.  Chair fabric was torn.  A vent fan in the living area was filthy.  Kitchen cabinets looked like they were straight out of the 70's.  Furnishings were really cheap looking.  Renovation was in progress and during the day the the motel was too noisey to sleep.  Grounds outside of the "pet" wing were full of dog poop which wasn't being removed by either the dog owners or the hotel staff.
+The hotel had a menu for Order Inn.com for food delivery.  I won't use them again.  When ordered the food price was under quoted by $13.  The delivery time was stated as 60-90 minutes but took longer.  The food was bland and tasteless.  For the lack of quality, the food was overpriced.  If I owned the hotel,...We needed a place to stay overnight in the Bedford, TX area and the TownePlace Suites was in the area we needed to be and they would allow pets.  Over the years, we have stayed in all the Marriott brands to include other TownePlace Suites.  In comparison with all the other places, this rates in the bottom two.  There was no facial tissues in the bathroom.  The bathroom door could not open all the way as it hit the shower curtain rod.  The bathroom door edge butted up to the toliet and had to be closed in order to use the toliet.  Refrigerator ice maker did not function.  The window curtains were badly wrinkled.  Chair fabric was torn.  A vent fan in the living area was filthy.  Kitchen cabinets looked like they were straight out of the 70's.  Furnishings were really cheap looking.  Renovation was in progress and during the day the the motel was too noisey to sleep.  Grounds outside of the "pet" wing were full of dog poop which wasn't being removed by either the dog owners or the hotel staff.The hotel had a menu for Order Inn.com for food delivery.  I won't use them again.  When ordered the food price was under quoted by $13.  The delivery time was stated as 60-90 minutes but took longer.  The food was bland and tasteless.  For the lack of quality, the food was overpriced.  If I owned the hotel, I certainly wouldn't offer the services of Order Inn.com until  their service and quality improved dramatically.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>We needed a place to stay overnight in the Bedford, TX area and the TownePlace Suites was in the area we needed to be and they would allow pets.  Over the years, we have stayed in all the Marriott brands to include other TownePlace Suites.  In comparison with all the other places, this rates in the bottom two.  There was no facial tissues in the bathroom.  The bathroom door could not open all the way as it hit the shower curtain rod.  The bathroom door edge butted up to the toliet and had to be closed in order to use the toliet.  Refrigerator ice maker did not function.  The window curtains were badly wrinkled.  Chair fabric was torn.  A vent fan in the living area was filthy.  Kitchen cabinets looked like they were straight out of the 70's.  Furnishings were really cheap looking.  Renovation was in progress and during the day the the motel was too noisey to sleep.  Grounds outside of the "pet" wing were full of dog poop which wasn't being removed by either the dog owners or the hotel staff.
+The hotel had a menu for Order Inn.com for food delivery.  I won't use them again.  When ordered the food price was under quoted by $13.  The delivery time was stated as 60-90 minutes but took longer.  The food was bland and tasteless.  For the lack of quality, the food was overpriced.  If I owned the hotel,...We needed a place to stay overnight in the Bedford, TX area and the TownePlace Suites was in the area we needed to be and they would allow pets.  Over the years, we have stayed in all the Marriott brands to include other TownePlace Suites.  In comparison with all the other places, this rates in the bottom two.  There was no facial tissues in the bathroom.  The bathroom door could not open all the way as it hit the shower curtain rod.  The bathroom door edge butted up to the toliet and had to be closed in order to use the toliet.  Refrigerator ice maker did not function.  The window curtains were badly wrinkled.  Chair fabric was torn.  A vent fan in the living area was filthy.  Kitchen cabinets looked like they were straight out of the 70's.  Furnishings were really cheap looking.  Renovation was in progress and during the day the the motel was too noisey to sleep.  Grounds outside of the "pet" wing were full of dog poop which wasn't being removed by either the dog owners or the hotel staff.The hotel had a menu for Order Inn.com for food delivery.  I won't use them again.  When ordered the food price was under quoted by $13.  The delivery time was stated as 60-90 minutes but took longer.  The food was bland and tasteless.  For the lack of quality, the food was overpriced.  If I owned the hotel, I certainly wouldn't offer the services of Order Inn.com until  their service and quality improved dramatically.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r119795113-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>119795113</t>
+  </si>
+  <si>
+    <t>10/27/2011</t>
+  </si>
+  <si>
+    <t>Extraordinary Value!</t>
+  </si>
+  <si>
+    <t>Pro: Good locationGood parkingExcellent front desk staffGood water pressureGood internet speedNice rooms with nice kitchen areaDecent free breakfastDaily room service/cleaning was very goodCon: Breakfast selection could be a bit better</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r119660830-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>119660830</t>
+  </si>
+  <si>
+    <t>10/24/2011</t>
+  </si>
+  <si>
+    <t>Best Kept Secret in this Area!</t>
+  </si>
+  <si>
+    <t>I've lived in the neighborhood next door to Bedford for the last 10 + yrs and this hotel claims to be a Tier 1. The rooms, staff, value, hot tub, service are all Tier 4 in my book. I stayed here for 16 days (due to in town on business and my house was unavailable, hahaha) and I would stay here again and recommend to all people that they do the same. Great restaurants within a short walk, Huge parking lot across the street that 24hr Fitness let us park our BIG rigs in. The staff was great! The breakfast was well stocked but again it was hotel food. The internet was good, great business center, a marketplace within for a few items. The TV was better than average. The patio has a grill and a hot tub that you could boil vegetables in! Just a tad hotter than normal.Convenient to gas, store, restaurants and many other things but its so tucked away behind the trees, you'd never even know it was here. Definitely take the time to look this one up and stay here if you're in the area. The value is unbeatable and your stay will be a pleasant one.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I've lived in the neighborhood next door to Bedford for the last 10 + yrs and this hotel claims to be a Tier 1. The rooms, staff, value, hot tub, service are all Tier 4 in my book. I stayed here for 16 days (due to in town on business and my house was unavailable, hahaha) and I would stay here again and recommend to all people that they do the same. Great restaurants within a short walk, Huge parking lot across the street that 24hr Fitness let us park our BIG rigs in. The staff was great! The breakfast was well stocked but again it was hotel food. The internet was good, great business center, a marketplace within for a few items. The TV was better than average. The patio has a grill and a hot tub that you could boil vegetables in! Just a tad hotter than normal.Convenient to gas, store, restaurants and many other things but its so tucked away behind the trees, you'd never even know it was here. Definitely take the time to look this one up and stay here if you're in the area. The value is unbeatable and your stay will be a pleasant one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r115219243-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>115219243</t>
+  </si>
+  <si>
+    <t>07/10/2011</t>
+  </si>
+  <si>
+    <t>Convenient, clean, inexpensive.great for the family</t>
+  </si>
+  <si>
+    <t>We needed three one-bedroom suites for a trip thatwouldtakeus ft worth, Arlington and all around the mid cities. These were inexpensive, clean and conveniently located. Friendly staff. Good breakfast. No pool,just a jacuzzi.  Great restaurants nearby and nice kitchenettes in the rooms.  We normally stay in nicer but for the money these were perfect Free fast Internet. Free parking.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r83443186-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>83443186</t>
+  </si>
+  <si>
+    <t>10/14/2010</t>
+  </si>
+  <si>
+    <t>Very rude front desk agent</t>
+  </si>
+  <si>
+    <t>The hotel itself is just fine but the front desk agent was very rude! He did not make me feel very welcome at all.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r77146664-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>77146664</t>
+  </si>
+  <si>
+    <t>08/27/2010</t>
+  </si>
+  <si>
+    <t>Nice hotel, good value</t>
+  </si>
+  <si>
+    <t>Given the low budget room rate, I was very pleasantly surprised. The rooms are large and comfortable. Furnishings are simple. Plenty of parking. Breakfast is the typical free breakfast, waffles, bagels, cereal, hard boiled eggs etc., and fine. Desk staff was very helpful and friendly. The place was very clean and well maintained. My only criticism is that the walls are a bit thin, so you'll hear your neighbors.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r14917212-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>14917212</t>
+  </si>
+  <si>
+    <t>04/09/2008</t>
+  </si>
+  <si>
+    <t>Great hotel for price</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel in April 2008.  It was great!  The staff was very friendly.  The area is nice and has two restaurants within walking distance.....Papadeaux and Bennigans.  We will definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r13560899-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>13560899</t>
+  </si>
+  <si>
+    <t>02/14/2008</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel as part of a week-long training event near the DFW airport. The hotel is located in a quiet location off a main freeway. The room was dated. The couch was horribly old. The bed was comfortable with quality cotton sheets and lots of pillows. Free WiFi in the room. The old room style AC/Heat was terribly loud and rattled on occasion in the middle of the night. The floors are THIN. I could hear the person in the room above me everytime they walked across their room. Thump, thump, thump. Full size fridge, microwave and stove top. The hotel offers a 20% discount at Bennigan's restuarant, within walking distance. There is also Pappadeaux's located next to Bennigan's. Pappadeaux's has some of the best seafood in the D/FW area. The free breakfast offered by the hotel was average at best. The training facility provides a discount rate that makes the stay reasonably inexpensive, but I would not pay retail price for this facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel as part of a week-long training event near the DFW airport. The hotel is located in a quiet location off a main freeway. The room was dated. The couch was horribly old. The bed was comfortable with quality cotton sheets and lots of pillows. Free WiFi in the room. The old room style AC/Heat was terribly loud and rattled on occasion in the middle of the night. The floors are THIN. I could hear the person in the room above me everytime they walked across their room. Thump, thump, thump. Full size fridge, microwave and stove top. The hotel offers a 20% discount at Bennigan's restuarant, within walking distance. There is also Pappadeaux's located next to Bennigan's. Pappadeaux's has some of the best seafood in the D/FW area. The free breakfast offered by the hotel was average at best. The training facility provides a discount rate that makes the stay reasonably inexpensive, but I would not pay retail price for this facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r8254507-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
+  </si>
+  <si>
+    <t>8254507</t>
+  </si>
+  <si>
+    <t>07/28/2007</t>
+  </si>
+  <si>
+    <t>Nice hotel, great price</t>
+  </si>
+  <si>
+    <t>This is a clean, comfortable hotel with very reasonable rates.  I made my reservation on the hotel's website, and only paid $69/night.  I had a queen size bed in a separate bedroom with its own TV and a ceiling fan.  The bed was very comfortable.  I didn't use the kitchenette, but it appeared adequate for long-term stays.  The bathroom was very small -- the door barely cleared the toilet, and would hit the shower curtain rod.  The shower itself was very good, with plenty of hot water.The free breakfast was minimal, so I picked up my own.  There are many good restaurants nearby, including Bennigans and  Pappadeaux.  The hotel is in a nice quiet area with many trees, despite its proximity to Highway 183.  The staff was very friendly and helpful.  Unless you would be bothered by a very small bathroom, I would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>This is a clean, comfortable hotel with very reasonable rates.  I made my reservation on the hotel's website, and only paid $69/night.  I had a queen size bed in a separate bedroom with its own TV and a ceiling fan.  The bed was very comfortable.  I didn't use the kitchenette, but it appeared adequate for long-term stays.  The bathroom was very small -- the door barely cleared the toilet, and would hit the shower curtain rod.  The shower itself was very good, with plenty of hot water.The free breakfast was minimal, so I picked up my own.  There are many good restaurants nearby, including Bennigans and  Pappadeaux.  The hotel is in a nice quiet area with many trees, despite its proximity to Highway 183.  The staff was very friendly and helpful.  Unless you would be bothered by a very small bathroom, I would highly recommend this hotel.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2455,5231 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>202</v>
+      </c>
+      <c r="X22" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>210</v>
+      </c>
+      <c r="X23" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>201</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>210</v>
+      </c>
+      <c r="X24" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>201</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>210</v>
+      </c>
+      <c r="X25" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>248</v>
+      </c>
+      <c r="X28" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" t="s">
+        <v>255</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>248</v>
+      </c>
+      <c r="X29" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>248</v>
+      </c>
+      <c r="X30" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J31" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>269</v>
+      </c>
+      <c r="O31" t="s">
+        <v>270</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>248</v>
+      </c>
+      <c r="X31" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>287</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>288</v>
+      </c>
+      <c r="X33" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>292</v>
+      </c>
+      <c r="J34" t="s">
+        <v>293</v>
+      </c>
+      <c r="K34" t="s">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>278</v>
+      </c>
+      <c r="X34" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>286</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>302</v>
+      </c>
+      <c r="X35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>306</v>
+      </c>
+      <c r="J36" t="s">
+        <v>307</v>
+      </c>
+      <c r="K36" t="s">
+        <v>308</v>
+      </c>
+      <c r="L36" t="s">
+        <v>309</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>286</v>
+      </c>
+      <c r="O36" t="s">
+        <v>124</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>310</v>
+      </c>
+      <c r="X36" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>314</v>
+      </c>
+      <c r="J37" t="s">
+        <v>315</v>
+      </c>
+      <c r="K37" t="s">
+        <v>316</v>
+      </c>
+      <c r="L37" t="s">
+        <v>317</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>318</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
+        <v>324</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>325</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" t="s">
+        <v>330</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>269</v>
+      </c>
+      <c r="O39" t="s">
+        <v>124</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>332</v>
+      </c>
+      <c r="J40" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" t="s">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s">
+        <v>335</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>269</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>336</v>
+      </c>
+      <c r="X40" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" t="s">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>344</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>336</v>
+      </c>
+      <c r="X41" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" t="s">
+        <v>348</v>
+      </c>
+      <c r="K42" t="s">
+        <v>349</v>
+      </c>
+      <c r="L42" t="s">
+        <v>350</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>344</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>336</v>
+      </c>
+      <c r="X42" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>352</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>353</v>
+      </c>
+      <c r="J43" t="s">
+        <v>354</v>
+      </c>
+      <c r="K43" t="s">
+        <v>355</v>
+      </c>
+      <c r="L43" t="s">
+        <v>356</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>357</v>
+      </c>
+      <c r="O43" t="s">
+        <v>124</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>336</v>
+      </c>
+      <c r="X43" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>359</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>360</v>
+      </c>
+      <c r="J44" t="s">
+        <v>361</v>
+      </c>
+      <c r="K44" t="s">
+        <v>362</v>
+      </c>
+      <c r="L44" t="s">
+        <v>363</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>364</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>365</v>
+      </c>
+      <c r="X44" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>368</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>369</v>
+      </c>
+      <c r="J45" t="s">
+        <v>361</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>364</v>
+      </c>
+      <c r="O45" t="s">
+        <v>270</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>372</v>
+      </c>
+      <c r="X45" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>375</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>376</v>
+      </c>
+      <c r="J46" t="s">
+        <v>377</v>
+      </c>
+      <c r="K46" t="s">
+        <v>378</v>
+      </c>
+      <c r="L46" t="s">
+        <v>379</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>364</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>372</v>
+      </c>
+      <c r="X46" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" t="s">
+        <v>383</v>
+      </c>
+      <c r="K47" t="s">
+        <v>384</v>
+      </c>
+      <c r="L47" t="s">
+        <v>385</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>386</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>387</v>
+      </c>
+      <c r="X47" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>390</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>391</v>
+      </c>
+      <c r="J48" t="s">
+        <v>392</v>
+      </c>
+      <c r="K48" t="s">
+        <v>393</v>
+      </c>
+      <c r="L48" t="s">
+        <v>394</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>372</v>
+      </c>
+      <c r="X48" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>396</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>397</v>
+      </c>
+      <c r="J49" t="s">
+        <v>398</v>
+      </c>
+      <c r="K49" t="s">
+        <v>399</v>
+      </c>
+      <c r="L49" t="s">
+        <v>400</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>386</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>401</v>
+      </c>
+      <c r="X49" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>405</v>
+      </c>
+      <c r="J50" t="s">
+        <v>406</v>
+      </c>
+      <c r="K50" t="s">
+        <v>407</v>
+      </c>
+      <c r="L50" t="s">
+        <v>408</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>409</v>
+      </c>
+      <c r="X50" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>412</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>413</v>
+      </c>
+      <c r="J51" t="s">
+        <v>414</v>
+      </c>
+      <c r="K51" t="s">
+        <v>415</v>
+      </c>
+      <c r="L51" t="s">
+        <v>416</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>417</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>409</v>
+      </c>
+      <c r="X51" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>419</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>420</v>
+      </c>
+      <c r="J52" t="s">
+        <v>421</v>
+      </c>
+      <c r="K52" t="s">
+        <v>422</v>
+      </c>
+      <c r="L52" t="s">
+        <v>423</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>424</v>
+      </c>
+      <c r="O52" t="s">
+        <v>270</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>409</v>
+      </c>
+      <c r="X52" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>426</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>427</v>
+      </c>
+      <c r="J53" t="s">
+        <v>428</v>
+      </c>
+      <c r="K53" t="s">
+        <v>429</v>
+      </c>
+      <c r="L53" t="s">
+        <v>430</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>431</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>432</v>
+      </c>
+      <c r="X53" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>435</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>436</v>
+      </c>
+      <c r="J54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K54" t="s">
+        <v>438</v>
+      </c>
+      <c r="L54" t="s">
+        <v>439</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>440</v>
+      </c>
+      <c r="X54" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>443</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>444</v>
+      </c>
+      <c r="J55" t="s">
+        <v>445</v>
+      </c>
+      <c r="K55" t="s">
+        <v>446</v>
+      </c>
+      <c r="L55" t="s">
+        <v>447</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>448</v>
+      </c>
+      <c r="O55" t="s">
+        <v>124</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>372</v>
+      </c>
+      <c r="X55" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>450</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>451</v>
+      </c>
+      <c r="J56" t="s">
+        <v>452</v>
+      </c>
+      <c r="K56" t="s">
+        <v>453</v>
+      </c>
+      <c r="L56" t="s">
+        <v>454</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>448</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>455</v>
+      </c>
+      <c r="X56" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>458</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>459</v>
+      </c>
+      <c r="J57" t="s">
+        <v>460</v>
+      </c>
+      <c r="K57" t="s">
+        <v>461</v>
+      </c>
+      <c r="L57" t="s">
+        <v>462</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>463</v>
+      </c>
+      <c r="X57" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>466</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>467</v>
+      </c>
+      <c r="J58" t="s">
+        <v>468</v>
+      </c>
+      <c r="K58" t="s">
+        <v>469</v>
+      </c>
+      <c r="L58" t="s">
+        <v>470</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>471</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>473</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>474</v>
+      </c>
+      <c r="J59" t="s">
+        <v>475</v>
+      </c>
+      <c r="K59" t="s">
+        <v>476</v>
+      </c>
+      <c r="L59" t="s">
+        <v>477</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>478</v>
+      </c>
+      <c r="O59" t="s">
+        <v>270</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>479</v>
+      </c>
+      <c r="X59" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>482</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>483</v>
+      </c>
+      <c r="J60" t="s">
+        <v>484</v>
+      </c>
+      <c r="K60" t="s">
+        <v>485</v>
+      </c>
+      <c r="L60" t="s">
+        <v>486</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>478</v>
+      </c>
+      <c r="O60" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>479</v>
+      </c>
+      <c r="X60" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>488</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>489</v>
+      </c>
+      <c r="J61" t="s">
+        <v>484</v>
+      </c>
+      <c r="K61" t="s">
+        <v>490</v>
+      </c>
+      <c r="L61" t="s">
+        <v>491</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>492</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>479</v>
+      </c>
+      <c r="X61" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>494</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>495</v>
+      </c>
+      <c r="J62" t="s">
+        <v>496</v>
+      </c>
+      <c r="K62" t="s">
+        <v>497</v>
+      </c>
+      <c r="L62" t="s">
+        <v>498</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>478</v>
+      </c>
+      <c r="O62" t="s">
+        <v>61</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>499</v>
+      </c>
+      <c r="X62" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>502</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>503</v>
+      </c>
+      <c r="J63" t="s">
+        <v>504</v>
+      </c>
+      <c r="K63" t="s">
+        <v>505</v>
+      </c>
+      <c r="L63" t="s">
+        <v>506</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>478</v>
+      </c>
+      <c r="O63" t="s">
+        <v>124</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>499</v>
+      </c>
+      <c r="X63" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>508</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>509</v>
+      </c>
+      <c r="J64" t="s">
+        <v>510</v>
+      </c>
+      <c r="K64" t="s">
+        <v>511</v>
+      </c>
+      <c r="L64" t="s">
+        <v>512</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>513</v>
+      </c>
+      <c r="X64" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>516</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>517</v>
+      </c>
+      <c r="J65" t="s">
+        <v>518</v>
+      </c>
+      <c r="K65" t="s">
+        <v>519</v>
+      </c>
+      <c r="L65" t="s">
+        <v>520</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>521</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>522</v>
+      </c>
+      <c r="X65" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>525</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>526</v>
+      </c>
+      <c r="J66" t="s">
+        <v>527</v>
+      </c>
+      <c r="K66" t="s">
+        <v>528</v>
+      </c>
+      <c r="L66" t="s">
+        <v>529</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>521</v>
+      </c>
+      <c r="O66" t="s">
+        <v>61</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>522</v>
+      </c>
+      <c r="X66" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>531</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>532</v>
+      </c>
+      <c r="J67" t="s">
+        <v>533</v>
+      </c>
+      <c r="K67" t="s">
+        <v>534</v>
+      </c>
+      <c r="L67" t="s">
+        <v>535</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>536</v>
+      </c>
+      <c r="O67" t="s">
+        <v>287</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>537</v>
+      </c>
+      <c r="X67" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>540</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>541</v>
+      </c>
+      <c r="J68" t="s">
+        <v>542</v>
+      </c>
+      <c r="K68" t="s">
+        <v>543</v>
+      </c>
+      <c r="L68" t="s">
+        <v>544</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>545</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>546</v>
+      </c>
+      <c r="X68" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>549</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>550</v>
+      </c>
+      <c r="J69" t="s">
+        <v>551</v>
+      </c>
+      <c r="K69" t="s">
+        <v>552</v>
+      </c>
+      <c r="L69" t="s">
+        <v>553</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>545</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>546</v>
+      </c>
+      <c r="X69" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>555</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>556</v>
+      </c>
+      <c r="J70" t="s">
+        <v>557</v>
+      </c>
+      <c r="K70" t="s">
+        <v>216</v>
+      </c>
+      <c r="L70" t="s">
+        <v>558</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>559</v>
+      </c>
+      <c r="O70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>560</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>561</v>
+      </c>
+      <c r="J71" t="s">
+        <v>562</v>
+      </c>
+      <c r="K71" t="s">
+        <v>563</v>
+      </c>
+      <c r="L71" t="s">
+        <v>564</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>565</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>566</v>
+      </c>
+      <c r="X71" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>569</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>570</v>
+      </c>
+      <c r="J72" t="s">
+        <v>571</v>
+      </c>
+      <c r="K72" t="s">
+        <v>572</v>
+      </c>
+      <c r="L72" t="s">
+        <v>573</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>574</v>
+      </c>
+      <c r="O72" t="s">
+        <v>124</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>575</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>576</v>
+      </c>
+      <c r="J73" t="s">
+        <v>577</v>
+      </c>
+      <c r="K73" t="s">
+        <v>578</v>
+      </c>
+      <c r="L73" t="s">
+        <v>579</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>565</v>
+      </c>
+      <c r="O73" t="s">
+        <v>270</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>580</v>
+      </c>
+      <c r="X73" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>583</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>584</v>
+      </c>
+      <c r="J74" t="s">
+        <v>585</v>
+      </c>
+      <c r="K74" t="s">
+        <v>586</v>
+      </c>
+      <c r="L74" t="s">
+        <v>587</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>588</v>
+      </c>
+      <c r="O74" t="s">
+        <v>61</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>590</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>591</v>
+      </c>
+      <c r="J75" t="s">
+        <v>592</v>
+      </c>
+      <c r="K75" t="s">
+        <v>593</v>
+      </c>
+      <c r="L75" t="s">
+        <v>594</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>595</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>596</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>597</v>
+      </c>
+      <c r="J76" t="s">
+        <v>598</v>
+      </c>
+      <c r="K76" t="s">
+        <v>599</v>
+      </c>
+      <c r="L76" t="s">
+        <v>600</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>601</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>603</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>604</v>
+      </c>
+      <c r="J77" t="s">
+        <v>605</v>
+      </c>
+      <c r="K77" t="s">
+        <v>606</v>
+      </c>
+      <c r="L77" t="s">
+        <v>607</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>608</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>609</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>610</v>
+      </c>
+      <c r="J78" t="s">
+        <v>611</v>
+      </c>
+      <c r="K78" t="s">
+        <v>612</v>
+      </c>
+      <c r="L78" t="s">
+        <v>613</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>614</v>
+      </c>
+      <c r="O78" t="s">
+        <v>270</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>615</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>616</v>
+      </c>
+      <c r="J79" t="s">
+        <v>617</v>
+      </c>
+      <c r="K79" t="s">
+        <v>618</v>
+      </c>
+      <c r="L79" t="s">
+        <v>619</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>620</v>
+      </c>
+      <c r="O79" t="s">
+        <v>124</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>621</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>622</v>
+      </c>
+      <c r="J80" t="s">
+        <v>623</v>
+      </c>
+      <c r="K80" t="s">
+        <v>624</v>
+      </c>
+      <c r="L80" t="s">
+        <v>625</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>626</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>627</v>
+      </c>
+      <c r="J81" t="s">
+        <v>628</v>
+      </c>
+      <c r="K81" t="s">
+        <v>629</v>
+      </c>
+      <c r="L81" t="s">
+        <v>630</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36477</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>632</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>633</v>
+      </c>
+      <c r="J82" t="s">
+        <v>634</v>
+      </c>
+      <c r="K82" t="s">
+        <v>635</v>
+      </c>
+      <c r="L82" t="s">
+        <v>636</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>637</v>
+      </c>
+      <c r="O82" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_758.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_758.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="716">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ALEX P</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>From the moment I walked in I had a good feeling about this hotel. I was greeted immediately and welcomed in a most friendly manner. The rooms are very nice and comfortable and have a nice work area. I love when a problem is addressed quickly and correctly. I was working at the desk and the toilet kept making noise. I called down and was told somebody would get back to me. After a little wait I just decided to pop down to the desk to see what the status was. I was immediately moved to another room with apologies and sincerity. This one worked out fine and problem solved. A call out to Janet - who I found to be extremely professional and helpful. Definitely a great place to stay in this area. A lot of restaurants very close too.More</t>
   </si>
   <si>
+    <t>stevenre1969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r559685334-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>jwagner1121</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r547706281-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Daniel A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r540792654-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>The staff that I came in contact this weekend are where unprofessional. Every encounter made me wonder how Marriott has not striped this hotel of there brand . The room was dirty I found several hairs in the bed . During check in they told me that they could not upgrade me because I used points and this was against policy. Yet I have gold status and use points and get upgraded frequently. When my wife arrived they made her a key and canceled my key . I went to get a new key and they canceled her key .  At breakfast on Saturday They ran out of food with 20 minutes left . All trash cans where over flowing . I decided to make a waffle and after the first waffle got Burt Megan told me that you have to know how to use this waffle maker and take it out early because it burns everything . It seemed like Megan found it funny how terrible there breakfast service was when she said "welcome to the crazy hotel" . Sounds like the staff know how crappy of service they are providing . I have stayed at 20 plus Marriott hotels and have had nothing but 5 star reviews for all of them . This hotel was a disappointment to the Marriott Brand .  More</t>
   </si>
   <si>
+    <t>Jacque S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r527685271-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>My company made a reservation for me earlier this month. On 9/23, I was asked to cancel my reservation, which I did. Then I was asked to reschedule it - I called back within 5 minutes to reschedule. Jordan said she couldn't undo the cancellation because she didn't have the authorization codes and she'd have her boss call me on the morning of 9/24 - I then asked if it would be better to just make a new reservation and didn't care if the rate was different. She said yes. I said okay let's do that. She said okay then hung up. I assumed the reservation was made. I also did not receive a call on the morning of 9/24. I come today to check in and am informed that my reservation had been cancelled and they had no other rooms. Jordan was at the front and stated she was the one that spoke with me. I told her I was confused because I left the phone call thinking a reservation was being made. Her boss came out and very rudely told me exactly what Jordan had said - that there were no rooms available and they could send me some where else. I said that I understood that but needed help understanding what happened, re-explaining what occurred from my understanding. The only answer I kept getting was "this is what the computer says".  Then with her boss there Jordan...My company made a reservation for me earlier this month. On 9/23, I was asked to cancel my reservation, which I did. Then I was asked to reschedule it - I called back within 5 minutes to reschedule. Jordan said she couldn't undo the cancellation because she didn't have the authorization codes and she'd have her boss call me on the morning of 9/24 - I then asked if it would be better to just make a new reservation and didn't care if the rate was different. She said yes. I said okay let's do that. She said okay then hung up. I assumed the reservation was made. I also did not receive a call on the morning of 9/24. I come today to check in and am informed that my reservation had been cancelled and they had no other rooms. Jordan was at the front and stated she was the one that spoke with me. I told her I was confused because I left the phone call thinking a reservation was being made. Her boss came out and very rudely told me exactly what Jordan had said - that there were no rooms available and they could send me some where else. I said that I understood that but needed help understanding what happened, re-explaining what occurred from my understanding. The only answer I kept getting was "this is what the computer says".  Then with her boss there Jordan ended up saying she didn't remember telling me that she'd have her boss call or that we were setting up a new reservation and then she lied and said she'd told me that they were booked when I asked her about making the new reservation. If she'd told me that then, I would have made other arrangements then. Not waiting until the night of to try to find something. Overall, I got very frustrated and upset at the lack of empathy and willingness to accept responsibility. When I shared that, all I got was an "I'm sorry we have no more rooms". I get it - if you have no more rooms, you have no more rooms - an apology for miscommunication or misunderstanding is all I was asking for. Apparently that was too much for an entity that should be focused on the experiences of its customers. To top it off I checked on Expedia.com as I was leaving and it shows two rooms available. Shame on you for not only not giving a good customer experience or being empathetic to a customer but then not working to try to solve problems and instead making the customer feel as though they were in the wrong. Thanks but no thanks.More</t>
   </si>
   <si>
+    <t>Bernardo F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r526108868-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>It is an extended stay place, but the room I got was ultra small. It was clean and comfortable and the location is quiet. The building is older, so you will hear water running and other noises from next door suites.   A few restaurants within walking distance, and shopping too.  No pool, but a small hot spa pool. Gym was ok.  Not a bad price for the area.</t>
   </si>
   <si>
+    <t>James B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r520609119-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -310,6 +331,9 @@
   </si>
   <si>
     <t>I usually stay at a Residence Inn or Courtyard. In comparison I found the rooms here to be pretty small and beds uncomfortable, however the amenities and room features were good. My biggest issue was the lack of soundproofing and noise from water pipes. Every time someone turned on a tap or had a shower the pipes made a very loud sound that woke me up a couple of times during the night.Location wise, it is close to the highway, and there are a couple of restaurants within walking distance.I found the staff friendly, however not very knowledgeable about the local area.More</t>
+  </si>
+  <si>
+    <t>ethansmom06</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r496713713-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
@@ -345,6 +369,9 @@
 I have only stayed in the one bedroom suites at this property, but this time it was not available since it was a last minute booking. The standard studio suite is very small and does not offer a lot of space even though it was just my son and I. And once the sleeper is set up, there is almost no room to move around. The kitchen was fine with standard appliances and it is always good to have a fridge and microwave. The queen bed was comfortable but the sleeper mattress was horrible and needs to replaced ASAP. It was lumpy and you could feel the springs when you were in bed. My son could not sleep on it very long and ended up coming to bed with me so he could sleep. I suggest management try to sleep on it before having...I have stayed at this property several times over the years and it has always been of the best in the Marriott line. But this time, I was not left with a very good impression of the room. Check in was quick even though they had be sold out the night before, I was able check in quickly and early so I was glad about that. The young woman who check me in was polite and professional and gave me the first room that was available.We were in our way in a couple of minutes.I have only stayed in the one bedroom suites at this property, but this time it was not available since it was a last minute booking. The standard studio suite is very small and does not offer a lot of space even though it was just my son and I. And once the sleeper is set up, there is almost no room to move around. The kitchen was fine with standard appliances and it is always good to have a fridge and microwave. The queen bed was comfortable but the sleeper mattress was horrible and needs to replaced ASAP. It was lumpy and you could feel the springs when you were in bed. My son could not sleep on it very long and ended up coming to bed with me so he could sleep. I suggest management try to sleep on it before having a guest sleep on on it.Which brings me to the bedding....the bedding for the sleeper was dingy and looked dirty. It did not even smell clean which made me wonder when it had been laundered last. I expect that from lower tiered hotels. I don't expect it from a property that charges upwards of 100 bucks a night for the room. Also, the room did not seem to ever cool off even though it was set as low as it would go. In the area where the bed is located, there was no air felt at all. I think most of the problem is the odd design of the room. I have stayed at other TP Suites and those properties do not have the design that this room had.And now for my major complaint. Hair in the tub and on the floor and on the counter as well. I could not figure out why the shower was not draining properly until I pulled out the plug and found a wad of hair in the plug. And I am not exaggerating either. It was very clear to me that the drain and plug had not been cleaned in while. I have short, curly brown hair. The hair in the train was different colors and lengths. It was disgusting. There was also long hair on the floor near the toilet and on the counter near the sink. Two towels had stains on them and the bedding on the queen bed had two small gray stains on the comforter. That was obvious to me when I checked into the room so I am not sure how housekeeping missed it. I did not eat breakfast or use any other amenities. I was disappointed there was not a pool either. I like the quiet location and I like that I can get to Fort Worth in under 30 min but the cleanliness issues were a major turnoff and I don't know if I will return. The desk clerk did mention that the hotel had been full the night before and they were full the day we checked in so I don't know if that had anything to do with the cleanliness or if this was just an isolated incident. I did mention the bedding and the ac when I checked out but I forgot to mention the bathroom because I was in a hurry when we left. I hope someone from management sees this and addresses the issue ASAP.Room 126 on June 21st.More</t>
   </si>
   <si>
+    <t>chris G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r493838622-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>Great service, very accommodating. Breanna exceeded my expectations by helping print several documents for me. It saved me a lot if time and I am very thankful for her assistants. The room was comfortable and clean.</t>
   </si>
   <si>
+    <t>Susan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r474294566-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -378,6 +408,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Jelenda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r471178761-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>rdfx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r469912482-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -414,6 +450,9 @@
     <t>Stayed here with 5 young children on our way through Texas.   Staff was friendly and helpful.  The room/suite was very comfortable and affordable for our large family.  The only reason for 4 stars is that the Lobby area felt like it needed cleaned, first impression.  I would make it a 4.5 star if I could because otherwise, the room itself was clean and the hotel was quiet and breakfast was good.  We really enjoyed our short stay and will be back if ever in the area.</t>
   </si>
   <si>
+    <t>redwolf0913</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r440105167-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -441,6 +480,9 @@
     <t>We have stayed here on many occasions when visiting family. It is a quiet hotel that's off by itself. It is clean, offers breakfast, &amp; wifi. The beds are comfy &amp; it has a great shower. This is our go-to place when in the area. More</t>
   </si>
   <si>
+    <t>LindsayBaines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r432630033-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -492,6 +534,9 @@
     <t>A very nice property, the place was very clean. The bed was okay. And it certainly is a nice quiet location. It was a little small. The gym is also kind of small. But the staff is very friendly. And the Suites are decent. Though the couch in mind could use a little replacing.More</t>
   </si>
   <si>
+    <t>Bcooking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r418888568-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -519,6 +564,9 @@
     <t>We have stayed here before and it's home when we are on that side of town.  Stephanie, Heather, Cindy, and Breanna, are the best; clean rooms and great breakfast too.  Also, quite and great location yet out off all the hassles of DFW.More</t>
   </si>
   <si>
+    <t>TraveltipKIT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r405488944-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -537,6 +585,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>chinablonde</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r394630689-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -561,6 +612,9 @@
     <t>I stayed here 2 nights. When I checked in the hall way carpet was filthy. Crumbs and food all along it. My room was the farthest from the elevator. The next day, same thing. Never vacuumed. The third day, same thing. I saw them cleaning rooms, but they must have just walked over the hall way dirt. Day after day.   I didn't have my room cleaned, so I can't speak to that. It appeared clean when I checked in. Over all its a poorly constructed, cheap materials hotel. More</t>
   </si>
   <si>
+    <t>Ray G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r377683220-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -588,6 +642,9 @@
     <t>We checked in to Bedford TownePlace Suites on Thursday 26 May 2016 checked out Sunday Morning 27 May. Staff was friendly check in easy. (accommodated early check in)!!    Free Breakfast was good and good variety.   Marriott chain is usually a great place to stay. This time was our 1st time staying with our 2 dogs in a pet friendly room.  50$ one time charge for both dogs better rate than most hotels. Room was fine, little kitchenette, 2 burner electric stove, medium sized fridge with ice maker. Dishwasher and ok set of pots, pans and dish set, silverware and glasses. Living room has a pullout bed, with little ottoman table with LG 32" flat screen TV. 1 bedroom locking door has queen bed, clean linens and comfortable bed with a LG 32" TV. Ceiling fan was nice during the night.  Bathroom basic layout great shower head with good pressure.  The few things that I was very dissatisfied and very disappointed was the smell of pets once you walked in and carpets were stained.  Went and made a trip to Petsmart to get odor/stain remover went through 2 bottles and 1 bottle of febreze. I was appreciate Marriott having rooms available for our 4 legged family members just wish they would make sure rooms are cleaned and rugs treated to eliminate odor. Not sure I will be back or would I recommend others with pets without ensuring the carpets and cleaning...We checked in to Bedford TownePlace Suites on Thursday 26 May 2016 checked out Sunday Morning 27 May. Staff was friendly check in easy. (accommodated early check in)!!    Free Breakfast was good and good variety.   Marriott chain is usually a great place to stay. This time was our 1st time staying with our 2 dogs in a pet friendly room.  50$ one time charge for both dogs better rate than most hotels. Room was fine, little kitchenette, 2 burner electric stove, medium sized fridge with ice maker. Dishwasher and ok set of pots, pans and dish set, silverware and glasses. Living room has a pullout bed, with little ottoman table with LG 32" flat screen TV. 1 bedroom locking door has queen bed, clean linens and comfortable bed with a LG 32" TV. Ceiling fan was nice during the night.  Bathroom basic layout great shower head with good pressure.  The few things that I was very dissatisfied and very disappointed was the smell of pets once you walked in and carpets were stained.  Went and made a trip to Petsmart to get odor/stain remover went through 2 bottles and 1 bottle of febreze. I was appreciate Marriott having rooms available for our 4 legged family members just wish they would make sure rooms are cleaned and rugs treated to eliminate odor. Not sure I will be back or would I recommend others with pets without ensuring the carpets and cleaning of pet friendly rooms are attended too and a change is made.More</t>
   </si>
   <si>
+    <t>Dee E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r373222999-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -612,6 +669,9 @@
     <t>We have enjoyed this reasonably priced hotel, that has accommodated us over our transition to Texas.  The staff is friendly and gracious.  We'd like to thank all of them for making our stay here so special.More</t>
   </si>
   <si>
+    <t>Jonfo1969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r359735333-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -639,6 +699,9 @@
     <t>This was my first stay at this TownePlace Suites location.  Located close to DFW airport but not too close for noise.  Good food close by too.  The staff were all friendly and the room was clean and comfortable More</t>
   </si>
   <si>
+    <t>ProudToBeCandian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r356410409-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -663,6 +726,9 @@
     <t>It happens. A corporate hotel online booking system that permits you to book a room even when the hotel in question is actually sold out. Arriving at the front desk of Towne Suites in Bedford to be informed of the “system glitch” would have by very irritating but for the fact that Meagan, the evening manager, was the one who warmly greeted me and assured me she would handle the problem. This was particularly impressive given that I arrived at a very busy time for the front desk. Meagan was on her own at the counter yet she handled each customer with such professional courtesy and competence we all patiently waited our turn.  She even managed to greet every guest that came through the lobby on the way to their room. For my particular case, she had a larger task of helping me find local accommodations when most surrounding hotels were also sold out. I was able to sit back while she took care of everything. It wasn’t only what Meagan did but how she did it that left such a positive impression with this frequent traveler. Customer service skills that embody care and competence are scarce these days. I can’t tell you how much she impressed me. If Meagan is the kind of employee that Marriot hires, they will be getting more of my business in the future.More</t>
   </si>
   <si>
+    <t>KABBANG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r356073748-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -681,6 +747,9 @@
     <t>Towneplace Suites Dallas/Bedford was a good choice for our Family Vacation/Wedding visit.The 1 bedroom suite was very clean and had all of the amenities needed for a comfortable stay.Hotels central location to Dallas and Fort Worth made for a short trip to both Dallas and Fort Worth tourist attractions.Plenty of great restaurants nearby.(Pappadeauxs was Excellent!)The complimentary breakfast was varied enough for everyones taste.Staff was very friendly and helpful.       Overall a great stay!More</t>
   </si>
   <si>
+    <t>Ryan O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r354788965-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -699,6 +768,9 @@
     <t>TownePlace Suites is very nicely located.  Its close enough to Dallas that it is convenient to get to, however far enough that you don't have all the hustle and bustle from the city.     Check in was quick and easy.  The clerk at the desk was very friendly and inviting.  The hotel does offer a complimentary breakfast.  It has a decent range of items to choose from (assorted fruit, muffins, eggs, waffles, biscuits and gravy, yogurt, cereal).  There isn't a whole lot of seating so you want to get down there early or bring your food back to your room.  The exercise room consists of two treadmills, so nothing spectacular there.  There is a hot tub located outside also.     The room itself was clean when we arrived and pretty spacious.  Our room has a stove, dishwasher, microwave, refriderator and TV.  Perfect for a long stay.     Overall this is a great hotel to stay at.More</t>
   </si>
   <si>
+    <t>claytong123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r349007381-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -726,6 +798,9 @@
     <t>Jacob Million greeted us upon arrival. He is very kind and treated our company very well. So far the hospitality has exceeded my expectations. I am extremely satisfied with my experience here. Not only has everyone been extremely kind, but I feel right at home here. I love TownPlace Suites, I wouldn't trade this trip for the world! Thank you Jacob for serving us while being so professional. -ClayMore</t>
   </si>
   <si>
+    <t>Darnell N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r345490845-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -753,6 +828,9 @@
     <t>After being on the road driving for a little over six hours, I could not wait to make it to the hotel to check in and just relax. When I finally arrived and came in to check in I received the greatest greeting ever from the manager  Jacob Million. I must say he greeted me with a smile and was nothing but courteous, even after the million questions I had he had no problem assisting me with all of them. I have stayed at many hotels in the metroplex area and by far this has been the best so far. My stay is not over yet but I had to take the opportunity to come and brag on the manager and the cleanliness of this hotel. If the rest of my stay is anything close to how it has started, it will be by far the greatest hotel stay  I have ever had. I have quite a few friends that travel to this area on a regular basis and I will definitely recommend that this is the only place they come and stay while they are here.More</t>
   </si>
   <si>
+    <t>Germi26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r343894083-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -816,6 +894,9 @@
     <t>Spent two weeks here. It was clean and comfy! The staff was very pleasant and accommodating. I was so happy that they allow pets. I was able to bring my dog along. He does not do well in boarding. Definitely would stay there again, and recommend it to others.More</t>
   </si>
   <si>
+    <t>PhD4Yah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r335762596-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -840,6 +921,9 @@
     <t>Cookies on check-in were delicious. Breakfast was varied with lots of options. Everything that I tried was wonderful.I really enjoyed the room, kitchenette with fridge, bed was absolutely heavenly.The only down side is when I tried to book for a return visit, the price had increased at least 20%More</t>
   </si>
   <si>
+    <t>devonwayne47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r326291472-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -865,6 +949,9 @@
   </si>
   <si>
     <t>I stayed at this hotel for the Philadelphia vs Dallas NFL game on 11/8/15.  Our stay was perfect.  It was like a mini apartment and the staff was always pleasant and helpful.  .  It is close to shopping, dinning, and activities.  We couldn't have asked for anything more.More</t>
+  </si>
+  <si>
+    <t>cudame</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r324097163-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
@@ -901,6 +988,9 @@
 My conclusion is I would stay here again only if the price is right.  You will get a decent stay but...This place is somewhat an enigma in that it has some significant issues, both good and bad.  Let me begin with the problems I found.  My rooms (I was moved when the heater burned out in my first room) had beds crammed into a barely adequate space.  This leads to the second problem of having the beveled closet door block passage to and from the bed when opened.  The bathroom door almost hits the toilet when entering the small bathroom.  Finally, the AC/Heater is the old style where you must turn an inexact knob to adjust the temperature.  This place seems dated!Regarding the good, the staff here is composed of the friendliest, eager to help people you will every experience.  The bed was comfortable, the TV worked well with many channel choices, the kitchenette appropriately stocked and although this place seems poorly designed and constructed, there was no issue with noise in the halls or neighbors.  Of course free parking and internet is a plus as is the breakfast.  Speaking of which, the breakfast is a study in offering the most items in the smallest space.  I was surprised at the amount of standard goods (three cereals, oatmeal, yogurt, fresh fruit, scrambled eggs and a mystery meat floating in hot water) offered in the small, well designed area.  My conclusion is I would stay here again only if the price is right.  You will get a decent stay but I would shop around as this place is little better than most of the competition.More</t>
   </si>
   <si>
+    <t>Ryan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r323007608-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -919,6 +1009,9 @@
     <t>We stay here occasionally for business. Standard room is a bit small but nice. The staff really make the place worth staying here. Had an issue with the business center and Yesenia went out of her way to help me out. She was able to print and email several documents that were time critical for me.More</t>
   </si>
   <si>
+    <t>Bruce V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r319638568-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1036,9 @@
     <t>Even with goggle map app the property can be difficult to find at night. Signage is blocked by trees. The monument sign on Central only has the TownPlace and Courtyard names where you see them as you drive by and are not lit at night.  It appears to be a bit tired with some repairs needed. Room was not cleaned on late return,(8PM) but enough towels for just me, Staff is very friendly, breakfast area is small and does get crowded. Good location for this trip.More</t>
   </si>
   <si>
+    <t>824stephw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r317842532-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1063,9 @@
     <t>If you need a quiet place, this fits the bill.  The rooms are clean, although the elevator smells like water issues...moldy smell.  There are laundry facilities, and breakfast is served including hot items, such as meat and eggs.More</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r313155672-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -988,6 +1087,9 @@
     <t>We recently stayed again September 16-19 while house hunting in the HEB area. We have had the pleasure of being guests at this great hidden gem numerous times over the last 5-6 years.  The staff goes out of their way to make sure everything is perfect and comfortable for their guests whether you are a 1st timer or repeat. Check in / out is always quick and easy.  We had our (4) 4-legged family members with us.  Numerous other guests had their pets with them as well but you could never tell.  The hallways are very quiet and very clean.  The housekeeping staff go out of their way to make sure you have everything you need.The complimentary breakfast is hot &amp; fresh and has a wide variety of tasty items to choose from.   I would most definitely recommend this hotel to anyone staying in the HEB area.  They go ABOVE &amp; BEYOND to make their guests feel welcomed and special.KEEP UP THE GREAT WORK!!!!!Thanks so much for a very pleasant stay (once again).More</t>
   </si>
   <si>
+    <t>ShirleyP1958</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r299612570-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1006,6 +1108,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Ana L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r295002836-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1021,6 +1126,9 @@
     <t xml:space="preserve">Staff was fantastic! When I walked in to check in they already knew my name and handed me my key. Room was Excellent! Bed was comfortable, the couch had a hide-a-bed and room was equipt with cooking utensils and dinnerware. The Breakfast they offered was ok, but there was something for everyone. I will be going back again and again! </t>
   </si>
   <si>
+    <t>mama2leilani</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r289336399-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1153,9 @@
     <t>We stayed here with our kids, for 2 nights, while my husband had contract work to do in Dallas. (We were on a family road trip). I had to work late (on my computer), so I went downstairs to the breakfast area to work. Around midnight, the woman at the front desk noticed how much I had been talking (I was making videos for work), and she brought me a bottle of water, without saying a word.The next day, while we were out and about, the housekeeping staff saw that my 9 year old daughter had written a note to the Tooth Fairy. (She had lost a tooth back in Austin, and was apologizing for not being home). When I arrived back at the hotel for the evening, we saw that the manager (Mike) and the Housekeeper, had left her a $5 bill with a note from the Tooth Fairy. I just about cried.Anyone who has traveled with children knows hows stressful it can be.It's just great to run into great customer service like this, it's a rarity. I also mentioned to my husband how pleased I was with the amount of storage available, to put all of our belongings! What a well laid out space!I'll definitely look for a TownPlace Suites again, on our travels.More</t>
   </si>
   <si>
+    <t>L G L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r283611515-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1177,9 @@
     <t>if you like the Residence Inn and cant find one close this is definitely worth the visit. This was the first time that I have stayed at a Towne Place and was very surprised. Clean - slightly less than a residence suite but more than sufficient. Service was good, this place was well maintained &amp; clean. Workout rom was ok - breakfast faire was moderate but good. Will now add to my list of potential sites when travelingMore</t>
   </si>
   <si>
+    <t>slschneider</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r279571352-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1198,9 @@
     <t>We are waiting on our home to be finished and stayed here 9 nights with 2 toddlers, ages 1 &amp; 3. Everything was very clean and the kitchen was perfect.... I was shocked to find a dishwasher! The breakfast was wonderful too! But the staff was beyond accommodating. They were wonderful with our kids and gave them toys to play with!! They did everything they could to make our stay relaxing during a stressful time.More</t>
   </si>
   <si>
+    <t>LoCloA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r275557307-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1105,6 +1222,9 @@
     <t>We stayed for two nights and loved our room. It was small but we liked how clean it was. Friendly staff. The only thing "negative" that I can say is that they only had a hot tub, but no pool. We did take advantage of the hot tub, and it was clean.More</t>
   </si>
   <si>
+    <t>sean c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r263451380-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1252,9 @@
     <t>The hotel itself was avg at best. The rooms weren't designed that well and nothing really stood out about the place. The employees however were very friendly and went out of their way to try and compensate me for an issue they had with the TVs in the fitness center. I would consider staying here again simply because of the gentlemen that helped out while there.More</t>
   </si>
   <si>
+    <t>Jeannie O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r263400667-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1153,6 +1276,9 @@
     <t>I stayed at TownePlace for 3 weeks while my home was being repaired.  If you have to be away from home under my circumstances I could have not picked a better place to stay.  The management to the staff have been wonderful.  Everyone has gone out of their way to make my stay enjoyable.  I feel that I have made new friends.  Thank you TownePlace for smiles and conversation every morning. Everytime I pass by I will think about you.Thank you for good breakfast every morning Cindy.More</t>
   </si>
   <si>
+    <t>Cindy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r261550250-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1171,6 +1297,9 @@
     <t>I stayed at Townplace Suites in Bedford, TX for several days. Great location, close to the airport, restaurants and shopping. Very comfortable bed, I actually slept better while I was there than I have in months. Room was exceptionally clean, spacious and quite. Enjoyed breakfast every morning, plenty of variety. Very polite staff that go out of their way to make your stay enjoyable. It was refreshing to stay at a hotel where management, breakfast host, room attendants and front desk interacted with the guest and are always asking, 'Is there anything we can do for you?' I would recommend this hotel and truly look forward to staying there again.More</t>
   </si>
   <si>
+    <t>badman525</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r251366795-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1327,9 @@
     <t>Nice place to lay up while waiting for the next day's flight. Reasonably priced with clean rooms. The hotel shows a little age but is maintained well.  No frills breakfast that's easy to pass up unless your budget tells you otherwise. A definite value compared to hotels closer the DFW.  More</t>
   </si>
   <si>
+    <t>Amanda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r250431118-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1348,9 @@
     <t>I was so presently surprised with this hotel. I was on my way to Atlanta (from Vancouver, BC) and stopped off here in Dallas for a few days. This hotel allows pets, which I think is great! However, what was even better than that, is that you cannot tell that this hotel allows pets - it was incredibly clean and smelled like a brand new hotel. They also offer "welcome gifts" for both dogs and cats. I wish I had of brought my dog on this trip with me....she would have loved this place. The bed and pillows are also worth mentioning....very, very comfortable. I would definitely stay here again and will recommend this hotel to everyone I know that visits the Dallas, TX, area.More</t>
   </si>
   <si>
+    <t>Kimberly W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r250244464-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1375,9 @@
     <t>Housekeeping entered our room even with the do not disturb sign clearly visible on our door, assistant manager told her to go in and lay a "welcome gift" in our room, even though we had already been there 3 days. I was very displeased with the response I received from the assistant manager "well, she did knock and no one answered, so she went in" Do Not Disturb means just that!More</t>
   </si>
   <si>
+    <t>Roundtheworld101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r241894270-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1285,6 +1423,9 @@
     <t>We recently stayed Oct. 23-26 again after staying numerous times in 2010 &amp; 2011. The quality of the property and staff friendliness had not changed one bit.  The hotel is pet friendly and that is very important to a lot of us who travel with our 4-legged family members.     The suites are extremely clean and comfortable. Hot breakfast each morning was always fresh and plentiful.  The front desk team was so nice, always in a good mood and super accommodating.   We will be back the next time we make our way to the DFW area.GREAT JOB....KEEP IT UP!!MEBGalveston, TexasMore</t>
   </si>
   <si>
+    <t>Lillie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r230943215-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1306,6 +1447,9 @@
     <t>stayed here while in bedford for a event for my oldest daughter...  it was clean, quite and nicely designed. .. it was a studio suite and the bathroom was a bit small but not a problem...had a average/normal breakfast and the area was a nice size...after i got the breakfast items i wanted, took upstairs, key card wouldn't work, downstairs/ upstairs, ditto, downstairs/upstairs and the third time was a charm(my only problem)...the staff was the nicest group i've encounteredMore</t>
   </si>
   <si>
+    <t>Lesley L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r216473598-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1333,6 +1477,9 @@
     <t>Overall, it was average.  The lobby area / breakfast area were great.  Love the refrigerated egg and bacon biscuits.  Much better than the powered eggs at other hotels.  The rooms were OK.  The fridge and kitchen cabinets seemed like they could use a thorough cleaning.  The living/desk area were fine, but the carpet was starting to wear.  The bed was very comfortable and the linens were crisp and fresh.  The closet, however, was near the foot of the bed with not a lot of space to open the door.  The bathroom was very small, although plenty of counter space for getting ready.  The door cleared the toilet by probably an inch.  The towels were thin and my bath towel had a dark smudge on it.   The bathroom appeared clean.All in all, I just wasn't 'comfortable' on the room as I am with most hotel rooms.  I doubt I would stay again if back in the area.More</t>
   </si>
   <si>
+    <t>Jamie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r215409835-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1357,6 +1504,9 @@
     <t>I booked this room on Priceline for a family vacation. I had my two young children and 2 fur babies. The man at the front desk could have been friendlier and also told me about the pet fee, but the rest of the staff made up for this. The room was large for a queen suite, which was great for my kids to move around. There were quite a few other guests with pets, but you wouldn't know it. The rooms were great at keeping in the sound. There was a continental breakfast that had a rotating special and all the extras you expect. There was always someone taking care of it and making sure you were doing ok. It was always very clean. Upon checkout, the lady was very cordial. These women probably don't get enough credit...they definitely deserve a pat on the back for their service. I would definitely stay here again. My only qualm was the construction made it a bit tricky...but welcome to DFW with that!More</t>
   </si>
   <si>
+    <t>BAM73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r213825725-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1378,6 +1528,9 @@
     <t>We were flying home from a European trip when a storm hit Dallas and they canceled all connecting flights.  The airport was bedlam, and we were lucky to find any rooms.  Mike the general manager was very helpful getting directions to the hotel for our taxi driver, and made a reservation for our taxi the next morning back to the airport.  Unfortunately they didn't have any shuttle service.  But the room was clean, roomy and the breakfast was more than ample.More</t>
   </si>
   <si>
+    <t>jinrath</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r207874157-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1402,6 +1555,9 @@
     <t>The staff of this hotel was so professional, especially Jason, who went above and beyond to make our family feel comfortable during our stay.  We had all gathered there for a Memorial Service of a close family member.  We were able to have a family barbeque and while we took over the breakfast area and patio, Jason made sure that every request was fillled.  It was a pleasure to stay at such a friendly and professional hotel, along with the staff, is certaibly an asset to the Marriott Family.  Thank you for making our stay so pleasurable.More</t>
   </si>
   <si>
+    <t>CROSENHE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r206018457-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1426,6 +1582,9 @@
     <t>Family stayed here to gather for a memorial service for a close relative. The hospitality could not have been better.  We had cookout and a reception for those attending and staff especially Jason was so attentive to our requests and went beyond to make sure our gathering was perfect.  All staff was friendly as well.  Thank you for making our stay comfortableMore</t>
   </si>
   <si>
+    <t>roadrun50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r201790800-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1604,9 @@
   </si>
   <si>
     <t>Came to Fort Worth for a conference at the convention center - conference hotel full - this was a great alternative option.  Rooms are large and comfortable with complete kitchen amenities.  Big draw - free wi-fi, free breakfast and free parking.  Long hike to convention center but a ten minute drive. Getting into the hotel lot is a little tricky with one way streets but staff provide god directions for other options.   There is a shuttle to downtown in the evenings and the hotel provides many quasi- social events on week nights some with wine or beer.There is a nice outdoor pool with lounge chairs and privacy fence surround.  Hot breakfast every morning is extensive and well maintained.  All staff were very helpful.More</t>
+  </si>
+  <si>
+    <t>Frank S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r188701054-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
@@ -1480,6 +1642,9 @@
 Anyway, the hotel is clean, comfortable and was conveniently located for me.  I would not hesitate to stay here...Stayed here for only 1 night.  Location was ideal for me.  I arrived late and the attendant was very nice and professional in greeting me.  A northern had just blown through and it was raining fairly heavy.  It was late and I asked him for some recommendations for dinner.  Thursday night so not much stays open late out here in the burbs.  Regardless, a Chili's right across the street would suffice.  Had a couple of beers at the bar over there and bit of steak to wash them down.  Headed back to the hotel and enjoyed a very nice sleep in a comfortable, clean room.  The room was spacious enough and offered a small kitchenette that I did not use.  A coffee pot was provided in the room but that was not needed either as they had warm black coffee ready early that next morning.  Sleep was excellent as the bedding and mattress were in great shape and smelled clean as well.  Had a small quick start breakfast in their lobby area (provided complimentary with paid room) and it was sufficient to start the day (danish, oatmeal, cold cereal, egg patty things, sausagey looking disks).  I didn't partake of much opting only for oatmeal and coffee but there were loads of folks eating everything in sight.  Heck, it's the burbs, remember.  Anyway, the hotel is clean, comfortable and was conveniently located for me.  I would not hesitate to stay here again if in the area.More</t>
   </si>
   <si>
+    <t>TravelingBarb2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r186791214-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1498,6 +1663,9 @@
     <t>We stayed here for five days (for our son's wedding) along with all the relatives and wedding party.  Very clean hotel; great breakfast options; super friendly and helpful staff.  Plenty of room in each suite to spread out and relax.  Good neighborhood with restaurants nearby.  Very impressed with this hotel and would definitely stay here again.More</t>
   </si>
   <si>
+    <t>travelbug1120</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r186789154-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1516,6 +1684,9 @@
     <t>Friendly staff, very clean room, quiet environment, hot tasty breakfast, good housekeeping, absolutely nothing to complain about. We stayed 4 nights and had a great experience. Check-in was quick and efficient. We were greeted when we passed the front desk and asked if everything was okay. Would definitely stay again. We stayed in a room that had two queen beds, a sleeper sofa, dining table with chairs, a cooktop, full size refrigerator, dishwasher and sink. There were plenty of electrical outlets to plug in phone chargers and computers.More</t>
   </si>
   <si>
+    <t>Bozinski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r185080676-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1540,6 +1711,9 @@
     <t>Great property! If you are looking for fancy, this is not it, however...I felt more at home and cared for here than I have at many "fine stay" establishments. The front desk staff was amazingly helpful and friendly and welcomed any questions and went out of their way to answere them. Breakfast was good, could maybe use another waffle maker for size of property and to keep batter coming...But...all in all, great stay. LOVE the apartment like furnishings. Made our family feel right at home.More</t>
   </si>
   <si>
+    <t>vintagejunge</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r184636885-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1558,6 +1732,9 @@
     <t>Generally, we prefer bed and breakfasts when traveling, however, the TownePlace was wonderful! First off, it was spotlessly clean.  Everything was in order, and the front desk could not have been friendlier, always a greeting and an offer to assist in any way.  The rooms were cozy with very nice colorful decor and comfortable beds.  The bathroom was spacious with drawers for belongings. Ample lighting, towels and even Paul Mitchell products.The complimentary breakfast was generous with plenty of food choices and bananas!  Rarely do I find bananas at hotels (I love them)!  There was a hot choice, waffles in the shape of the state of Texas which was made us laugh!  Juices, pastry, muffins, breads, hard boiled eggs, yogurt, oatmeal and cereal too.One of my favorite touches was the iced lemon water available all day!  What a nice idea!The hotel was convenient to many attractions and easy to access.Would definitely stay here again!  It was not a huge hotel and that was a bonus as well, just the right size.More</t>
   </si>
   <si>
+    <t>Jasonsullivan6911</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r166215324-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1580,6 +1757,9 @@
   </si>
   <si>
     <t>Great place, good value, great staff. Off the highway just enough so that you don't hear the noise. Many Restaurants all within mile.Will definately be backFYI be sure to call ahead for directions there is a lot of construction at the moment and can be confusing. More</t>
+  </si>
+  <si>
+    <t>Bobbie R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r162546150-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
@@ -1613,6 +1793,9 @@
 The bad. He hotel is very difficult to find. It's locate directly behind another Marriott property and impossible to see from the street. The beds are horrible. They are equipped with full size beds with uncomfortable mattresses and pull out sleeper sofas that are even worse. The coffee is disgusting The bizarre. When you walk in the front door you are greeted by the dining room and a snack stand. There is a small booth that is e check in counter. When I got here I thought I came in through the wrong door, I was expecting to...Our family was sent here by our insurance company after our house flooded to give us housing while repairs were being made to our home. I don't have a lot of experience staying in extended stay hotels but ill give you the run down of the good the bad and the bizarre of townie place suites. Lets start with the good. The rooms are large and attractively decorated. There are lots of places to unpack and comfortable put away your belongings. The rooms are equipped with a fridge, microwave, stove, dishes and cooking utensils. This hotel is convenient lay located to dfw airport, a movie theater and a few restaurants. Free breakfast and wifi, which is saying a lot if you've ever stayed at a Marriott before you know wifi is 12 bucks per day and breakfast will cost you another 25.The bad. He hotel is very difficult to find. It's locate directly behind another Marriott property and impossible to see from the street. The beds are horrible. They are equipped with full size beds with uncomfortable mattresses and pull out sleeper sofas that are even worse. The coffee is disgusting The bizarre. When you walk in the front door you are greeted by the dining room and a snack stand. There is a small booth that is e check in counter. When I got here I thought I came in through the wrong door, I was expecting to see a front desk, which this hotel does not have. They have a pool size hot tub.... Which would be great, except this is Texas and its 90+ degrees outside six months of the year. There is no pool.Overall, I would say this place is just ok.More</t>
   </si>
   <si>
+    <t>LorrifromWelcome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r160680078-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1631,6 +1814,9 @@
     <t>We stayed at the Towne Place Suites because the Hyatt Stockyard had overbooked and cancelled our reservation.   It was late, and we wanted to relax and get to our room.   It is a little tricky to find.   You need to get on the East side, and it was a one way street.   The front desk people were very nice and offered any help with directions, maps, stuff to do.  Very nice.   We went to our room and I was pleasantly surprised.  It smelled clean, and looked new and fresh.  How nice was it having a little kitchen right in the room as you walk in.  They made great use of that space that would have just been wasted on a foyer.  It had a full fridge, cook top, dishwasher, sink, coffee pot, microwave, cabinets with dishes and everything you would need.  It would be a perfect place to stay for a week.  The bed was VERY comfortable and so were the pillows, nice bathroom with a great shower, and blow dryer.  The room also has a large chair to relax in and a desk area with a chair.  The hotel has a nice free breakfast in the lobby every morning which was awesome.  So nice not to get up and drive out in the morning for something to eat.   The only downside was I could hear noises from the guests in other rooms.  Nice place.  I believe there was a...We stayed at the Towne Place Suites because the Hyatt Stockyard had overbooked and cancelled our reservation.   It was late, and we wanted to relax and get to our room.   It is a little tricky to find.   You need to get on the East side, and it was a one way street.   The front desk people were very nice and offered any help with directions, maps, stuff to do.  Very nice.   We went to our room and I was pleasantly surprised.  It smelled clean, and looked new and fresh.  How nice was it having a little kitchen right in the room as you walk in.  They made great use of that space that would have just been wasted on a foyer.  It had a full fridge, cook top, dishwasher, sink, coffee pot, microwave, cabinets with dishes and everything you would need.  It would be a perfect place to stay for a week.  The bed was VERY comfortable and so were the pillows, nice bathroom with a great shower, and blow dryer.  The room also has a large chair to relax in and a desk area with a chair.  The hotel has a nice free breakfast in the lobby every morning which was awesome.  So nice not to get up and drive out in the morning for something to eat.   The only downside was I could hear noises from the guests in other rooms.  Nice place.  I believe there was a pool and gym which we didn't use and I can't comment on.More</t>
   </si>
   <si>
+    <t>ohio08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r158685649-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1658,6 +1844,9 @@
     <t>The rooms were clean and the staff accommodating, but the rooms seem to be getting a bit dated(chair in my room was missing an arm and beat up) but not that bad for the economical price. The hot breakfast was a waffle maker with a long line and microwave burritos and sandwiches which I was ok with (easy to heat and eat on the go). All in all I'd say exactly what I would expect for the money More</t>
   </si>
   <si>
+    <t>LVSquared</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r151205974-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1685,6 +1874,9 @@
     <t>1. Breakfast is ok for 2-3 days, but the same pre-packaged stuff every day is boring and not appealing. 2. Customer service is seriously lacking, it seems that everyone is more concerned about sitting in the front desk chair or quickly finishing a task than attending to guests. 3. The construction is horrid in this area, all the way up and down is just a huge aggravation. 4. Fitness center is well equipped, but heats up quick and the treadmill is a complete joke, all it does is make a loud squeaking noise. 5. The rooms are very clean, well kept and the added benefit of a nice kitchen is what makes me give them at least 3 "stars"  I won't be staying here in the future.More</t>
   </si>
   <si>
+    <t>HillCountryTexan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r151094002-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1703,6 +1895,9 @@
     <t>The check-in person did not stand up to greet me - it was a young lady who just stayed seated. There is 1980's orange type carpeting in the entry. The room smelled musty.  It was a cold night and I turned on the heater in the room.  The fire alarm was set off with the heater turned on. I had to wait for a time before trying the heater again - and the fire alarm did not go off. The continental breakfast - skip it.  No one was manning the front desk at check out and I had to wait until the person hosting the "breakfast" could break away to check me out (She by the way was friendly, apologetic, appropriate!) This hotel stay was worth about $40 - not Marriott quality AT ALL! We are Marriott supporters and I support NOT going to this TownPlace.More</t>
   </si>
   <si>
+    <t>porcai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r148210759-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1718,6 +1913,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>scubacher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r139114222-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1745,6 +1943,9 @@
     <t>Stayed here for 2 weeks during a work.  The "grab and go" breakfast is not much at all.  I've stayed at Staybridge Suites and they have an awesome fresh, hot breakfast.  The place is a bit dated but my room was clean.  There is only one air conditioner for the suite.  It was VERY cold in the living area and if turned to a warmer setting, the bedroom got very stuffy and warm.  They do have a pull-out sofa but not sure how sleeping next to the ice cold air conditioner would feel.  There are a few other kitchenette hotels in this area.  I would recommend one of those compared to this one.  Staff is friendly and the hotel is close to the freeway, restaurants and shopping.More</t>
   </si>
   <si>
+    <t>len f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r138769301-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1763,6 +1964,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>canyanyday</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r136251584-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1785,6 +1989,9 @@
   </si>
   <si>
     <t>Stayed here overnight due to no availability at preferred hotel near Grapevine. Nice, average size room; living area with fold out bed, kitchen, separate bedroom. Clean, comfortable, colorful decor, and cold a/c. Only complaint is that the toilet had stain streaks and the grab and go breakfast was more like a snack. In a neighborhood setting close to stores and restaurants.More</t>
+  </si>
+  <si>
+    <t>OldArmySoldier</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r124276479-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
@@ -1810,6 +2017,9 @@
 The hotel had a menu for Order Inn.com for food delivery.  I won't use them again.  When ordered the food price was under quoted by $13.  The delivery time was stated as 60-90 minutes but took longer.  The food was bland and tasteless.  For the lack of quality, the food was overpriced.  If I owned the hotel,...We needed a place to stay overnight in the Bedford, TX area and the TownePlace Suites was in the area we needed to be and they would allow pets.  Over the years, we have stayed in all the Marriott brands to include other TownePlace Suites.  In comparison with all the other places, this rates in the bottom two.  There was no facial tissues in the bathroom.  The bathroom door could not open all the way as it hit the shower curtain rod.  The bathroom door edge butted up to the toliet and had to be closed in order to use the toliet.  Refrigerator ice maker did not function.  The window curtains were badly wrinkled.  Chair fabric was torn.  A vent fan in the living area was filthy.  Kitchen cabinets looked like they were straight out of the 70's.  Furnishings were really cheap looking.  Renovation was in progress and during the day the the motel was too noisey to sleep.  Grounds outside of the "pet" wing were full of dog poop which wasn't being removed by either the dog owners or the hotel staff.The hotel had a menu for Order Inn.com for food delivery.  I won't use them again.  When ordered the food price was under quoted by $13.  The delivery time was stated as 60-90 minutes but took longer.  The food was bland and tasteless.  For the lack of quality, the food was overpriced.  If I owned the hotel, I certainly wouldn't offer the services of Order Inn.com until  their service and quality improved dramatically.More</t>
   </si>
   <si>
+    <t>Samjax777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r119795113-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1828,6 +2038,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>cliffsiler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r119660830-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1849,6 +2062,9 @@
     <t>I've lived in the neighborhood next door to Bedford for the last 10 + yrs and this hotel claims to be a Tier 1. The rooms, staff, value, hot tub, service are all Tier 4 in my book. I stayed here for 16 days (due to in town on business and my house was unavailable, hahaha) and I would stay here again and recommend to all people that they do the same. Great restaurants within a short walk, Huge parking lot across the street that 24hr Fitness let us park our BIG rigs in. The staff was great! The breakfast was well stocked but again it was hotel food. The internet was good, great business center, a marketplace within for a few items. The TV was better than average. The patio has a grill and a hot tub that you could boil vegetables in! Just a tad hotter than normal.Convenient to gas, store, restaurants and many other things but its so tucked away behind the trees, you'd never even know it was here. Definitely take the time to look this one up and stay here if you're in the area. The value is unbeatable and your stay will be a pleasant one.More</t>
   </si>
   <si>
+    <t>fracmeister</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r115219243-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1867,6 +2083,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>stepgonz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r83443186-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1885,6 +2104,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>OldGray</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r77146664-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1903,6 +2125,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>kharris0729</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r14917212-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1918,6 +2143,9 @@
     <t>We stayed at this hotel in April 2008.  It was great!  The staff was very friendly.  The area is nice and has two restaurants within walking distance.....Papadeaux and Bennigans.  We will definitely stay there again.</t>
   </si>
   <si>
+    <t>hwkrdrvr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r13560899-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1934,6 +2162,9 @@
   </si>
   <si>
     <t>I stayed at this hotel as part of a week-long training event near the DFW airport. The hotel is located in a quiet location off a main freeway. The room was dated. The couch was horribly old. The bed was comfortable with quality cotton sheets and lots of pillows. Free WiFi in the room. The old room style AC/Heat was terribly loud and rattled on occasion in the middle of the night. The floors are THIN. I could hear the person in the room above me everytime they walked across their room. Thump, thump, thump. Full size fridge, microwave and stove top. The hotel offers a 20% discount at Bennigan's restuarant, within walking distance. There is also Pappadeaux's located next to Bennigan's. Pappadeaux's has some of the best seafood in the D/FW area. The free breakfast offered by the hotel was average at best. The training facility provides a discount rate that makes the stay reasonably inexpensive, but I would not pay retail price for this facility.More</t>
+  </si>
+  <si>
+    <t>Marc T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d107380-r8254507-TownePlace_Suites_Dallas_Bedford-Bedford_Texas.html</t>
@@ -2459,43 +2690,47 @@
       <c r="A2" t="n">
         <v>36477</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>43472</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2515,50 +2750,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36477</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>180075</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2576,50 +2815,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36477</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>180076</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2637,50 +2880,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36477</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>2318</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2692,56 +2939,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36477</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>42041</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2753,56 +3004,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36477</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>19763</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2822,50 +3077,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36477</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>7151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2877,56 +3136,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36477</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>180077</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2944,56 +3207,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36477</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>180078</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3007,50 +3274,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36477</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>4311</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3064,50 +3335,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36477</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>180079</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3127,50 +3402,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36477</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>180080</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3188,50 +3467,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36477</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>180081</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3243,56 +3526,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36477</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>34690</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3310,56 +3597,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="X15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36477</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>19763</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3371,56 +3662,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36477</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>180082</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3432,56 +3727,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36477</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>180083</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3501,50 +3800,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36477</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>180084</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3556,56 +3859,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36477</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>35037</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3617,56 +3924,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36477</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>65200</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3682,56 +3993,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="X21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36477</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>15829</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3743,56 +4058,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="X22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36477</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>180085</v>
+      </c>
+      <c r="C23" t="s">
+        <v>225</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3810,56 +4129,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36477</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>180086</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3875,56 +4198,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X24" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36477</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>180087</v>
+      </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3942,56 +4269,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X25" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36477</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>180088</v>
+      </c>
+      <c r="C26" t="s">
+        <v>248</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4009,56 +4340,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="X26" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36477</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>180089</v>
+      </c>
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4074,56 +4409,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36477</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>180090</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4141,56 +4480,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="X28" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36477</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>19763</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="J29" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4202,56 +4545,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36477</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>4311</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4269,56 +4616,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="X30" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="Y30" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36477</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>180091</v>
+      </c>
+      <c r="C31" t="s">
+        <v>290</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4336,56 +4687,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="X31" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36477</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>180092</v>
+      </c>
+      <c r="C32" t="s">
+        <v>299</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="O32" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4403,56 +4758,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="X32" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36477</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>180093</v>
+      </c>
+      <c r="C33" t="s">
+        <v>309</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O33" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4470,56 +4829,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="X33" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="Y33" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36477</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>29885</v>
+      </c>
+      <c r="C34" t="s">
+        <v>320</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="J34" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="K34" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4531,56 +4894,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="X34" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36477</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>180094</v>
+      </c>
+      <c r="C35" t="s">
+        <v>327</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="J35" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="K35" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4598,56 +4965,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="X35" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="Y35" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36477</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>180095</v>
+      </c>
+      <c r="C36" t="s">
+        <v>336</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="J36" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O36" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4663,56 +5034,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="X36" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Y36" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36477</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>967</v>
+      </c>
+      <c r="C37" t="s">
+        <v>345</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="J37" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="K37" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="L37" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4732,50 +5107,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36477</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>180096</v>
+      </c>
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K38" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="L38" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4789,50 +5168,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36477</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>52809</v>
+      </c>
+      <c r="C39" t="s">
+        <v>360</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K39" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4846,50 +5229,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36477</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>180097</v>
+      </c>
+      <c r="C40" t="s">
+        <v>366</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="J40" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="K40" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="L40" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4905,56 +5292,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="X40" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="Y40" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36477</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156304</v>
+      </c>
+      <c r="C41" t="s">
+        <v>375</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="J41" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="K41" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="L41" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4970,56 +5361,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="X41" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="Y41" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36477</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>180098</v>
+      </c>
+      <c r="C42" t="s">
+        <v>383</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="J42" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="K42" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="L42" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5031,56 +5426,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="X42" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="Y42" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36477</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>180099</v>
+      </c>
+      <c r="C43" t="s">
+        <v>390</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="J43" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="K43" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="L43" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="O43" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5096,56 +5495,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="X43" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="Y43" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36477</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>180100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>398</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="J44" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="K44" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="L44" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5157,56 +5560,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="X44" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="Y44" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36477</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>80431</v>
+      </c>
+      <c r="C45" t="s">
+        <v>408</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="J45" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="K45" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="L45" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="O45" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5218,56 +5625,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="X45" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="Y45" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36477</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>22081</v>
+      </c>
+      <c r="C46" t="s">
+        <v>416</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="J46" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="K46" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="L46" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5283,56 +5694,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="X46" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36477</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>36043</v>
+      </c>
+      <c r="C47" t="s">
+        <v>423</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="J47" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="K47" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="L47" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5344,56 +5759,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="X47" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="Y47" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36477</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>11315</v>
+      </c>
+      <c r="C48" t="s">
+        <v>433</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="J48" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="K48" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="L48" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5411,56 +5830,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="X48" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="Y48" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36477</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>16295</v>
+      </c>
+      <c r="C49" t="s">
+        <v>440</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="J49" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="K49" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="L49" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5476,47 +5899,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="X49" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="Y49" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36477</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>180101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>449</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="J50" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="K50" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="L50" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -5533,56 +5960,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="X50" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="Y50" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36477</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>967</v>
+      </c>
+      <c r="C51" t="s">
+        <v>345</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="J51" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="K51" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="L51" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5600,56 +6031,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="X51" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="Y51" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36477</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>180102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>465</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="J52" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="K52" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="L52" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="O52" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5667,56 +6102,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="X52" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="Y52" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36477</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>8257</v>
+      </c>
+      <c r="C53" t="s">
+        <v>473</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="J53" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="K53" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="L53" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5734,47 +6173,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="X53" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="Y53" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36477</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>8782</v>
+      </c>
+      <c r="C54" t="s">
+        <v>483</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="J54" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="K54" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="L54" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5791,56 +6234,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X54" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y54" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36477</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>180103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>492</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="J55" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="K55" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="L55" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="O55" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5862,56 +6309,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="X55" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="Y55" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36477</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>180104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>500</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="J56" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="K56" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="L56" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="O56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5933,47 +6384,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="X56" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="Y56" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36477</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>180105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>509</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="J57" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="K57" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="L57" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -6000,56 +6455,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="X57" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="Y57" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36477</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>180106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>518</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="J58" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="K58" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="L58" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6073,50 +6532,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36477</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>6657</v>
+      </c>
+      <c r="C59" t="s">
+        <v>526</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="J59" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="K59" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="L59" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="O59" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6138,56 +6601,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="X59" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="Y59" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36477</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>180107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>536</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="J60" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="K60" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="L60" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="O60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6209,56 +6676,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="X60" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="Y60" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36477</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>180108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>543</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="J61" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="K61" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="L61" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6280,56 +6751,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="X61" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="Y61" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36477</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>180109</v>
+      </c>
+      <c r="C62" t="s">
+        <v>550</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="J62" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="K62" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="L62" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="O62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6351,56 +6826,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="X62" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="Y62" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36477</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>180110</v>
+      </c>
+      <c r="C63" t="s">
+        <v>559</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="J63" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="K63" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="L63" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="O63" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6422,47 +6901,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="X63" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="Y63" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36477</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>180111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>566</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="J64" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="K64" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="L64" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6489,56 +6972,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="X64" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="Y64" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36477</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>180112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>575</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="J65" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="K65" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="L65" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="O65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6560,56 +7047,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="X65" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="Y65" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36477</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>180113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>585</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="J66" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="K66" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="L66" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="O66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6631,56 +7122,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="X66" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="Y66" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36477</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>180114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>592</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="J67" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="K67" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="L67" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="O67" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6692,56 +7187,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="X67" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="Y67" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36477</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>180115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>602</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="J68" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="K68" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="L68" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6753,56 +7252,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="X68" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="Y68" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36477</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>180116</v>
+      </c>
+      <c r="C69" t="s">
+        <v>612</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="J69" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="K69" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="L69" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
@@ -6824,56 +7327,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="X69" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="Y69" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36477</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>180117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>619</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="J70" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="K70" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L70" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="O70" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6897,50 +7404,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>36477</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>180118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>625</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="J71" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="K71" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="L71" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6962,56 +7473,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="X71" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="Y71" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>36477</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>180119</v>
+      </c>
+      <c r="C72" t="s">
+        <v>635</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="J72" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="K72" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="L72" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="O72" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7035,50 +7550,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>36477</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>180120</v>
+      </c>
+      <c r="C73" t="s">
+        <v>642</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="J73" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="K73" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="L73" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="O73" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7100,56 +7619,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="X73" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="Y73" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>36477</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>120060</v>
+      </c>
+      <c r="C74" t="s">
+        <v>651</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="J74" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="K74" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="L74" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="O74" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -7173,50 +7696,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>36477</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>72830</v>
+      </c>
+      <c r="C75" t="s">
+        <v>659</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="J75" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="K75" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="L75" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7240,50 +7767,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>36477</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>37350</v>
+      </c>
+      <c r="C76" t="s">
+        <v>666</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="J76" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="K76" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="L76" t="s">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7307,50 +7838,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>36477</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>180121</v>
+      </c>
+      <c r="C77" t="s">
+        <v>674</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="J77" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="K77" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="L77" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="O77" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7370,50 +7905,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>36477</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>81568</v>
+      </c>
+      <c r="C78" t="s">
+        <v>681</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="J78" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="K78" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
       <c r="L78" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="O78" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7437,50 +7976,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>36477</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>180122</v>
+      </c>
+      <c r="C79" t="s">
+        <v>688</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="J79" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
       <c r="K79" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="L79" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="O79" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7504,41 +8047,45 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>36477</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>180123</v>
+      </c>
+      <c r="C80" t="s">
+        <v>695</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="J80" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="K80" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="L80" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
@@ -7557,41 +8104,45 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>36477</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>180124</v>
+      </c>
+      <c r="C81" t="s">
+        <v>701</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="J81" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="K81" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="L81" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="M81" t="n">
         <v>2</v>
@@ -7610,50 +8161,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>36477</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>28677</v>
+      </c>
+      <c r="C82" t="s">
+        <v>708</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="J82" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="K82" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="L82" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="O82" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7677,7 +8232,7 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
